--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -40,13 +40,14 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(boss,enemy,summoner,followHero,minio)</t>
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="1">
+    <comment ref="Y2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
   <si>
     <t>id</t>
   </si>
@@ -144,9 +145,6 @@
   </si>
   <si>
     <t>attack_interval</t>
-  </si>
-  <si>
-    <t>drop_items_tuple: any[];</t>
   </si>
   <si>
     <t>reward_exp</t>
@@ -157,6 +155,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>角色物编</t>
@@ -166,6 +165,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -335,6 +335,26 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cehua_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop_items_tuple</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,6 +375,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -368,6 +389,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -379,11 +401,13 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -394,6 +418,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -424,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,11 +490,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -758,10 +828,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -775,35 +845,38 @@
     <col min="7" max="7" width="23.75" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="19.375" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
-    <col min="19" max="19" width="8.875" customWidth="1"/>
-    <col min="20" max="20" width="12.625" customWidth="1"/>
-    <col min="21" max="21" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
-    <col min="23" max="23" width="10.375" customWidth="1"/>
-    <col min="24" max="24" width="17.125" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
-    <col min="26" max="26" width="17.125" customWidth="1"/>
-    <col min="27" max="27" width="27.125" customWidth="1"/>
-    <col min="28" max="28" width="11.5" customWidth="1"/>
-    <col min="29" max="200" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="19.375" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="18.25" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="23" width="12.625" customWidth="1"/>
+    <col min="24" max="24" width="10.375" customWidth="1"/>
+    <col min="25" max="25" width="17.125" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="17.125" customWidth="1"/>
+    <col min="28" max="28" width="27.125" customWidth="1"/>
+    <col min="29" max="29" width="11.5" customWidth="1"/>
+    <col min="30" max="201" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15">
+    <row r="1" spans="1:29" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
@@ -822,249 +895,258 @@
       <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+    </row>
+    <row r="2" spans="1:29" ht="15">
+      <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" ht="15">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R2" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" t="s">
-        <v>43</v>
-      </c>
-      <c r="T2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" t="s">
+    <row r="3" spans="1:29" ht="15">
+      <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" ht="15">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>51</v>
+      <c r="AC3" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15">
+    <row r="4" spans="1:29" ht="15">
       <c r="A4" s="8">
         <v>1001</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1073,13 +1155,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+      <c r="J4" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1097,14 +1179,14 @@
         <v>0</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>10</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
         <v>0</v>
       </c>
@@ -1112,45 +1194,48 @@
         <v>0</v>
       </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>200</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>20</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>300</v>
       </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
         <v>201347498</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
       <c r="AB4">
         <v>0</v>
       </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" ht="15">
+    <row r="5" spans="1:29" ht="15">
       <c r="A5" s="8">
         <v>1003</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -1159,14 +1244,14 @@
         <v>1</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -1183,14 +1268,14 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>10</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
       <c r="S5">
         <v>0</v>
       </c>
@@ -1198,45 +1283,48 @@
         <v>0</v>
       </c>
       <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>200</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>20</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>300</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>201385536</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>2</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
       <c r="AB5">
         <v>0</v>
       </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" ht="15">
+    <row r="6" spans="1:29" ht="15">
       <c r="A6" s="8">
         <v>1004</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1245,13 +1333,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+      <c r="J6" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1269,14 +1357,14 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>10</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
       <c r="S6">
         <v>0</v>
       </c>
@@ -1284,45 +1372,48 @@
         <v>0</v>
       </c>
       <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
         <v>200</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>20</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>300</v>
       </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
         <v>201347498</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
       <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15">
+    <row r="7" spans="1:29" ht="15">
       <c r="A7" s="8">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1331,14 +1422,14 @@
         <v>1</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
         <v>66</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
@@ -1355,14 +1446,14 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>10</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
       <c r="S7">
         <v>0</v>
       </c>
@@ -1370,45 +1461,48 @@
         <v>0</v>
       </c>
       <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
         <v>200</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>20</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>300</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>1</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>201385536</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>2</v>
       </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
       <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15">
+    <row r="8" spans="1:29" ht="15">
       <c r="A8" s="8">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -1417,84 +1511,87 @@
         <v>2</v>
       </c>
       <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" t="s">
         <v>72</v>
       </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>30</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.5</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>20</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>2</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <v>2</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>500</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>50</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>300</v>
       </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
         <v>201347498</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1.77</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
       <c r="AB8">
         <v>0</v>
       </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" ht="15">
+    <row r="9" spans="1:29" ht="15">
       <c r="A9" s="8">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>71</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1503,84 +1600,87 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
         <v>73</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>30</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.5</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>10</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>20</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <v>2</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>500</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>50</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>300</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>201347498</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>2.2200000000000002</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
       <c r="AB9">
         <v>0</v>
       </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" ht="15">
+    <row r="10" spans="1:29" ht="15">
       <c r="A10" s="8">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1589,82 +1689,88 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>30</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>20</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>500</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>50</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>300</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>1</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>201385536</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>2.2799999999999998</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="H9">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="2" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H5 H11:H12 H8 H15:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:J1048576 J11:J12 J1:J3">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1688,28 +1794,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -34,7 +34,7 @@
     <author>Owner</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0">
+    <comment ref="H2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1">
+    <comment ref="Z2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>id</t>
   </si>
@@ -301,9 +301,6 @@
     <t>英雄</t>
   </si>
   <si>
-    <t>英雄甲</t>
-  </si>
-  <si>
     <t>js</t>
   </si>
   <si>
@@ -355,6 +352,41 @@
   </si>
   <si>
     <t>drop_items_tuple</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_type</t>
+  </si>
+  <si>
+    <t>普通</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿刺</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>summoner</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击类型</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -497,21 +529,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -828,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -840,34 +858,35 @@
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="23.75" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="14.75" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
-    <col min="14" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="19.375" customWidth="1"/>
-    <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="17.125" customWidth="1"/>
-    <col min="19" max="19" width="18.25" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="12.625" customWidth="1"/>
-    <col min="24" max="24" width="10.375" customWidth="1"/>
-    <col min="25" max="25" width="17.125" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="17.125" customWidth="1"/>
-    <col min="28" max="28" width="27.125" customWidth="1"/>
-    <col min="29" max="29" width="11.5" customWidth="1"/>
-    <col min="30" max="201" width="9.5" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
+    <col min="14" max="14" width="8.375" customWidth="1"/>
+    <col min="15" max="16" width="13.75" customWidth="1"/>
+    <col min="17" max="17" width="19.375" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="18.25" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="12.625" customWidth="1"/>
+    <col min="25" max="25" width="10.375" customWidth="1"/>
+    <col min="26" max="26" width="17.125" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="27.125" customWidth="1"/>
+    <col min="30" max="30" width="11.5" customWidth="1"/>
+    <col min="31" max="202" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15">
+    <row r="1" spans="1:30" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,88 +894,91 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15">
+    <row r="2" spans="1:30" ht="15">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
@@ -970,82 +992,85 @@
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>83</v>
+      <c r="I2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>36</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>37</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
       </c>
       <c r="R2" t="s">
         <v>40</v>
       </c>
       <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" t="s">
         <v>41</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
       </c>
       <c r="U2" t="s">
         <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W2" t="s">
         <v>43</v>
       </c>
       <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15">
+    <row r="3" spans="1:30" ht="15">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -1057,25 +1082,25 @@
         <v>51</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>84</v>
+      <c r="I3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>52</v>
@@ -1117,116 +1142,122 @@
         <v>52</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15">
+    <row r="4" spans="1:30" ht="15">
       <c r="A4" s="8">
+        <v>101</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>20</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2</v>
+      </c>
+      <c r="V4">
+        <v>0.2</v>
+      </c>
+      <c r="W4">
+        <v>500</v>
+      </c>
+      <c r="X4">
+        <v>50</v>
+      </c>
+      <c r="Y4">
+        <v>300</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>201385536</v>
+      </c>
+      <c r="AB4">
+        <v>2</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="15">
+      <c r="A5" s="8">
         <v>1001</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>200</v>
-      </c>
-      <c r="W4">
-        <v>20</v>
-      </c>
-      <c r="X4">
-        <v>300</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>201347498</v>
-      </c>
-      <c r="AA4">
-        <v>2</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15">
-      <c r="A5" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>55</v>
@@ -1234,177 +1265,183 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
-        <v>60</v>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="G5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>200</v>
+      </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
+      <c r="Y5">
+        <v>300</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>201347498</v>
+      </c>
+      <c r="AB5">
+        <v>2</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="15">
+      <c r="A6" s="8">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>10</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>200</v>
-      </c>
-      <c r="W5">
-        <v>20</v>
-      </c>
-      <c r="X5">
-        <v>300</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>201385536</v>
-      </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15">
-      <c r="A6" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="G6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>200</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6">
+        <v>300</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>201385536</v>
+      </c>
+      <c r="AB6">
+        <v>2</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="15">
+      <c r="A7" s="8">
+        <v>1004</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>200</v>
-      </c>
-      <c r="W6">
-        <v>20</v>
-      </c>
-      <c r="X6">
-        <v>300</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>201347498</v>
-      </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15">
-      <c r="A7" s="8">
-        <v>1005</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>63</v>
@@ -1412,365 +1449,472 @@
       <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>200</v>
+      </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <v>300</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>201347498</v>
+      </c>
+      <c r="AB7">
+        <v>2</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="15">
+      <c r="A8" s="8">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
         <v>60</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>10</v>
       </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
         <v>200</v>
       </c>
-      <c r="W7">
+      <c r="X8">
         <v>20</v>
       </c>
-      <c r="X7">
+      <c r="Y8">
         <v>300</v>
       </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
+      <c r="Z8">
+        <v>1</v>
+      </c>
+      <c r="AA8">
         <v>201385536</v>
       </c>
-      <c r="AA7">
+      <c r="AB8">
         <v>2</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="15">
-      <c r="A8" s="8">
+    <row r="9" spans="1:30" ht="15">
+      <c r="A9" s="8">
         <v>1006</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>68</v>
-      </c>
-      <c r="C8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I8" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>0.5</v>
-      </c>
-      <c r="Q8">
-        <v>20</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>0.2</v>
-      </c>
-      <c r="V8">
-        <v>500</v>
-      </c>
-      <c r="W8">
-        <v>50</v>
-      </c>
-      <c r="X8">
-        <v>300</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>201347498</v>
-      </c>
-      <c r="AA8">
-        <v>1.77</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" ht="15">
-      <c r="A9" s="8">
-        <v>1007</v>
-      </c>
-      <c r="B9" t="s">
-        <v>73</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <v>20</v>
+      </c>
+      <c r="S9">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>0.2</v>
+      </c>
+      <c r="W9">
+        <v>500</v>
+      </c>
+      <c r="X9">
+        <v>50</v>
+      </c>
+      <c r="Y9">
+        <v>300</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>201347498</v>
+      </c>
+      <c r="AB9">
+        <v>1.77</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="15">
+      <c r="A10" s="8">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
         <v>72</v>
-      </c>
-      <c r="J9" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9">
-        <v>30</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
-      <c r="R9">
-        <v>2</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9">
-        <v>0.2</v>
-      </c>
-      <c r="V9">
-        <v>500</v>
-      </c>
-      <c r="W9">
-        <v>50</v>
-      </c>
-      <c r="X9">
-        <v>300</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>201347498</v>
-      </c>
-      <c r="AA9">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" ht="15">
-      <c r="A10" s="8">
-        <v>1008</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
       </c>
       <c r="C10" t="s">
         <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>2</v>
+      <c r="G10" t="s">
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I10" t="s">
         <v>72</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>0.2</v>
+      </c>
+      <c r="W10">
+        <v>500</v>
+      </c>
+      <c r="X10">
+        <v>50</v>
+      </c>
+      <c r="Y10">
+        <v>300</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>201347498</v>
+      </c>
+      <c r="AB10">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15">
+      <c r="A11" s="8">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="K10">
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="L10">
+      <c r="M11">
         <v>0.5</v>
       </c>
-      <c r="M10">
+      <c r="N11">
         <v>30</v>
       </c>
-      <c r="N10">
+      <c r="O11">
         <v>3</v>
       </c>
-      <c r="O10">
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
         <v>20</v>
       </c>
-      <c r="R10">
+      <c r="S11">
         <v>2</v>
       </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="U10">
+      <c r="V11">
         <v>0.2</v>
       </c>
-      <c r="V10">
+      <c r="W11">
         <v>500</v>
       </c>
-      <c r="W10">
+      <c r="X11">
         <v>50</v>
       </c>
-      <c r="X10">
+      <c r="Y11">
         <v>300</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
+      <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
         <v>201385536</v>
       </c>
-      <c r="AA10">
+      <c r="AB11">
         <v>2.2799999999999998</v>
       </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="G10">
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
     <cfRule type="duplicateValues" dxfId="4" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
+  <conditionalFormatting sqref="G7:G8">
+    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H7">
-    <cfRule type="duplicateValues" dxfId="2" priority="15"/>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H5 H11:H12 H8 H15:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  <conditionalFormatting sqref="G12 G15:G1048576 G9 G1:G6">
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J15:J1048576 J11:J12 J1:J3">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="I15:I1048576 I12 I1:I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1794,28 +1938,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -259,9 +259,6 @@
     <t>难度1我方小兵</t>
   </si>
   <si>
-    <t>重甲</t>
-  </si>
-  <si>
     <t>jsxb</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
   </si>
   <si>
     <t>火枪手</t>
-  </si>
-  <si>
-    <t>中甲</t>
   </si>
   <si>
     <t>hqs</t>
@@ -358,18 +352,6 @@
     <t>attack_type</t>
   </si>
   <si>
-    <t>普通</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿刺</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>英雄</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤师</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -387,6 +369,10 @@
   </si>
   <si>
     <t>攻击类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -529,14 +515,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -894,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -912,10 +891,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -972,7 +951,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AD1" t="s">
         <v>25</v>
@@ -1004,10 +983,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
@@ -1094,13 +1073,13 @@
         <v>51</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>52</v>
@@ -1145,7 +1124,7 @@
         <v>52</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>50</v>
@@ -1165,13 +1144,13 @@
         <v>101</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1180,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="J4" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K4" s="11">
+        <v>20000</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -1272,19 +1251,19 @@
         <v>1</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
+      <c r="J5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="11">
+        <v>20000</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1349,7 +1328,7 @@
         <v>1003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>55</v>
@@ -1364,19 +1343,19 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
+      <c r="J6" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="11">
+        <v>20000</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1441,10 +1420,10 @@
         <v>1004</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1456,19 +1435,19 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="J7" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K7" s="11">
+        <v>20000</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1533,10 +1512,10 @@
         <v>1005</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1548,19 +1527,19 @@
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="J8" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K8" s="11">
+        <v>20000</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1625,10 +1604,10 @@
         <v>1006</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -1640,19 +1619,19 @@
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="11">
+        <v>20000</v>
       </c>
       <c r="L9">
         <v>10</v>
@@ -1717,10 +1696,10 @@
         <v>1007</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1732,19 +1711,19 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="J10" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K10" s="11">
+        <v>20000</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -1809,10 +1788,10 @@
         <v>1008</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -1824,19 +1803,19 @@
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
+      </c>
+      <c r="J11" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="11">
+        <v>20000</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1899,22 +1878,22 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="duplicateValues" dxfId="4" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="duplicateValues" dxfId="3" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12 G15:G1048576 G9 G1:G6">
-    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I1048576 I12 I1:I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1938,28 +1917,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -265,12 +265,6 @@
     <t>minio</t>
   </si>
   <si>
-    <t>火枪手</t>
-  </si>
-  <si>
-    <t>hqs</t>
-  </si>
-  <si>
     <t>食尸鬼</t>
   </si>
   <si>
@@ -373,6 +367,93 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗游侠</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人酋长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士</t>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mls</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ayx</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trqz</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jss</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +596,28 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -825,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -841,7 +943,7 @@
     <col min="6" max="6" width="23.75" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.375" customWidth="1"/>
@@ -873,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
@@ -891,10 +993,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
         <v>3</v>
@@ -951,7 +1053,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AD1" t="s">
         <v>25</v>
@@ -983,10 +1085,10 @@
         <v>33</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>
@@ -1073,13 +1175,13 @@
         <v>51</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>52</v>
@@ -1124,7 +1226,7 @@
         <v>52</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="5" t="s">
         <v>50</v>
@@ -1141,31 +1243,32 @@
     </row>
     <row r="4" spans="1:30" ht="15">
       <c r="A4" s="8">
-        <v>101</v>
+        <v>134254942</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>85</v>
+      <c r="I4" s="11" t="str">
+        <f>B4</f>
+        <v>召唤师</v>
       </c>
       <c r="J4" s="11">
         <v>10000</v>
@@ -1233,7 +1336,7 @@
     </row>
     <row r="5" spans="1:30" ht="15">
       <c r="A5" s="8">
-        <v>1001</v>
+        <v>134219177</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>54</v>
@@ -1256,8 +1359,9 @@
       <c r="H5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>54</v>
+      <c r="I5" s="11" t="str">
+        <f t="shared" ref="I5:I14" si="0">B5</f>
+        <v>剑士</v>
       </c>
       <c r="J5" s="11">
         <v>10000</v>
@@ -1325,13 +1429,13 @@
     </row>
     <row r="6" spans="1:30" ht="15">
       <c r="A6" s="8">
-        <v>1003</v>
-      </c>
-      <c r="B6" s="6" t="s">
+        <v>134244650</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1343,13 +1447,14 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>食尸鬼</v>
       </c>
       <c r="J6" s="11">
         <v>10000</v>
@@ -1400,10 +1505,10 @@
         <v>300</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>201385536</v>
+        <v>201347498</v>
       </c>
       <c r="AB6">
         <v>2</v>
@@ -1412,18 +1517,18 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="15">
       <c r="A7" s="8">
-        <v>1004</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>134261362</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1435,13 +1540,14 @@
         <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>蜘蛛</v>
       </c>
       <c r="J7" s="11">
         <v>10000</v>
@@ -1492,10 +1598,10 @@
         <v>300</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>201347498</v>
+        <v>201385536</v>
       </c>
       <c r="AB7">
         <v>2</v>
@@ -1509,31 +1615,32 @@
     </row>
     <row r="8" spans="1:30" ht="15">
       <c r="A8" s="8">
-        <v>1005</v>
+        <v>134243024</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>61</v>
+      <c r="C8" t="s">
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>剑圣</v>
       </c>
       <c r="J8" s="11">
         <v>10000</v>
@@ -1542,90 +1649,91 @@
         <v>20000</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="W8">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="X8">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="Y8">
         <v>300</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>201385536</v>
+        <v>201347498</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
       <c r="AD8">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15">
       <c r="A9" s="8">
-        <v>1006</v>
+        <v>134242228</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" t="s">
         <v>67</v>
       </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>66</v>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>山丘之王</v>
       </c>
       <c r="J9" s="11">
         <v>10000</v>
@@ -1634,22 +1742,22 @@
         <v>20000</v>
       </c>
       <c r="L9">
+        <v>30</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
         <v>10</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>30</v>
-      </c>
-      <c r="O9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>5</v>
-      </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R9">
         <v>20</v>
@@ -1682,7 +1790,7 @@
         <v>201347498</v>
       </c>
       <c r="AB9">
-        <v>1.77</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AC9">
         <v>0</v>
@@ -1693,16 +1801,16 @@
     </row>
     <row r="10" spans="1:30" ht="15">
       <c r="A10" s="8">
-        <v>1007</v>
+        <v>134260903</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1714,10 +1822,11 @@
         <v>71</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>暗影猎手</v>
       </c>
       <c r="J10" s="11">
         <v>10000</v>
@@ -1726,16 +1835,16 @@
         <v>20000</v>
       </c>
       <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>0.5</v>
+      </c>
+      <c r="N10">
         <v>30</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>3</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>0.5</v>
       </c>
       <c r="P10">
         <v>10</v>
@@ -1768,13 +1877,13 @@
         <v>300</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>201347498</v>
+        <v>201385536</v>
       </c>
       <c r="AB10">
-        <v>2.2200000000000002</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AC10">
         <v>0</v>
@@ -1783,15 +1892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="15">
-      <c r="A11" s="8">
-        <v>1008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
+    <row r="11" spans="1:30">
+      <c r="A11">
+        <v>134224243</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
         <v>36</v>
@@ -1802,14 +1911,15 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" t="s">
-        <v>73</v>
+      <c r="G11" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>恶魔猎手</v>
       </c>
       <c r="J11" s="11">
         <v>10000</v>
@@ -1872,28 +1982,310 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12">
+        <v>134250976</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>黑暗游侠</v>
+      </c>
+      <c r="J12" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K12" s="11">
+        <v>20000</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>0.5</v>
+      </c>
+      <c r="N12">
+        <v>30</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>2</v>
+      </c>
+      <c r="V12">
+        <v>0.2</v>
+      </c>
+      <c r="W12">
+        <v>500</v>
+      </c>
+      <c r="X12">
+        <v>50</v>
+      </c>
+      <c r="Y12">
+        <v>300</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12">
+        <v>201385536</v>
+      </c>
+      <c r="AB12">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13">
+        <v>134280846</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>牛头人酋长</v>
+      </c>
+      <c r="J13" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K13" s="11">
+        <v>20000</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>0.5</v>
+      </c>
+      <c r="N13">
+        <v>30</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>10</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <v>0.2</v>
+      </c>
+      <c r="W13">
+        <v>500</v>
+      </c>
+      <c r="X13">
+        <v>50</v>
+      </c>
+      <c r="Y13">
+        <v>300</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <v>201385536</v>
+      </c>
+      <c r="AB13">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="A14">
+        <v>134233666</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>炼金术士</v>
+      </c>
+      <c r="J14" s="11">
+        <v>10000</v>
+      </c>
+      <c r="K14" s="11">
+        <v>20000</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>0.5</v>
+      </c>
+      <c r="N14">
+        <v>30</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>10</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>20</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <v>0.2</v>
+      </c>
+      <c r="W14">
+        <v>500</v>
+      </c>
+      <c r="X14">
+        <v>50</v>
+      </c>
+      <c r="Y14">
+        <v>300</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>201385536</v>
+      </c>
+      <c r="AB14">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11">
-    <cfRule type="duplicateValues" dxfId="5" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7:G8">
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+  <conditionalFormatting sqref="G6:G7">
+    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12 G15:G1048576 G9 G1:G6">
-    <cfRule type="duplicateValues" dxfId="2" priority="21"/>
+  <conditionalFormatting sqref="G11 G14:G1048576 G8 G1:G5">
+    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I1048576 I12 I1:I4">
-    <cfRule type="duplicateValues" dxfId="1" priority="27"/>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:G14">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1917,28 +2309,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -596,21 +596,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -930,7 +916,7 @@
   <dimension ref="A1:AD14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2267,25 +2253,25 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="G9">
-    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6:G7">
-    <cfRule type="duplicateValues" dxfId="6" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11 G14:G1048576 G8 G1:G5">
-    <cfRule type="duplicateValues" dxfId="4" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:G14">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2330,7 +2316,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -34,7 +34,7 @@
     <author>Owner</author>
   </authors>
   <commentList>
-    <comment ref="H2" authorId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="1">
+    <comment ref="Y2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -70,12 +70,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
   <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>cname</t>
   </si>
   <si>
     <t>main_attr</t>
@@ -172,9 +169,6 @@
     </r>
   </si>
   <si>
-    <t>中文名</t>
-  </si>
-  <si>
     <t>作用（策）</t>
   </si>
   <si>
@@ -367,18 +361,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔猎手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗游侠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛头人酋长</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -455,6 +437,18 @@
   <si>
     <t>力量</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤师</t>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+  </si>
+  <si>
+    <t>黑暗游侠</t>
+  </si>
+  <si>
+    <t>牛头人酋长</t>
   </si>
 </sst>
 </file>
@@ -555,7 +549,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,9 +576,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -913,79 +904,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD14"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="17.125" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="14.875" customWidth="1"/>
-    <col min="14" max="14" width="8.375" customWidth="1"/>
-    <col min="15" max="16" width="13.75" customWidth="1"/>
-    <col min="17" max="17" width="19.375" customWidth="1"/>
-    <col min="18" max="18" width="11.5" customWidth="1"/>
-    <col min="19" max="19" width="17.125" customWidth="1"/>
-    <col min="20" max="20" width="18.25" customWidth="1"/>
-    <col min="21" max="21" width="8.875" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
-    <col min="23" max="23" width="10.875" customWidth="1"/>
-    <col min="24" max="24" width="12.625" customWidth="1"/>
-    <col min="25" max="25" width="10.375" customWidth="1"/>
-    <col min="26" max="26" width="17.125" customWidth="1"/>
-    <col min="27" max="27" width="11.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="27.125" customWidth="1"/>
-    <col min="30" max="30" width="11.5" customWidth="1"/>
-    <col min="31" max="202" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="14.875" customWidth="1"/>
+    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="14" max="15" width="13.75" customWidth="1"/>
+    <col min="16" max="16" width="19.375" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="18.25" customWidth="1"/>
+    <col min="20" max="20" width="8.875" customWidth="1"/>
+    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="10.875" customWidth="1"/>
+    <col min="23" max="23" width="12.625" customWidth="1"/>
+    <col min="24" max="24" width="10.375" customWidth="1"/>
+    <col min="25" max="25" width="17.125" customWidth="1"/>
+    <col min="26" max="26" width="11.5" customWidth="1"/>
+    <col min="27" max="27" width="17.125" customWidth="1"/>
+    <col min="28" max="28" width="27.125" customWidth="1"/>
+    <col min="29" max="29" width="11.5" customWidth="1"/>
+    <col min="30" max="201" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15">
+    <row r="1" spans="1:29" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K1" t="s">
-        <v>3</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -1035,326 +1025,312 @@
       <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" t="s">
+    </row>
+    <row r="2" spans="1:29" ht="15">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="15">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="L2" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>34</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>35</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>36</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
         <v>39</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>40</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>40</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>41</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>43</v>
       </c>
-      <c r="X2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>45</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>47</v>
       </c>
-      <c r="AC2" t="s">
+    </row>
+    <row r="3" spans="1:29" ht="15">
+      <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" ht="15">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15">
+    <row r="4" spans="1:29" ht="15">
       <c r="A4" s="8">
         <v>134254942</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="11" t="str">
-        <f>B4</f>
-        <v>召唤师</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="H4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I4" s="10">
         <v>10000</v>
       </c>
-      <c r="K4" s="11">
+      <c r="J4" s="10">
         <v>20000</v>
       </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
       <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
         <v>10</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
       <c r="P4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V4">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W4">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X4">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y4">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA4">
-        <v>201385536</v>
+        <v>2</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:30" ht="15">
+    <row r="5" spans="1:29" ht="15">
       <c r="A5" s="8">
         <v>134219177</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="11" t="str">
-        <f t="shared" ref="I5:I14" si="0">B5</f>
-        <v>剑士</v>
-      </c>
-      <c r="J5" s="11">
+      <c r="H5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="10">
         <v>10000</v>
       </c>
-      <c r="K5" s="11">
+      <c r="J5" s="10">
         <v>20000</v>
       </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
       <c r="L5">
         <v>0</v>
       </c>
@@ -1371,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1386,68 +1362,64 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W5">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="X5">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="Y5">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>201347498</v>
       </c>
       <c r="AA5">
-        <v>201347498</v>
+        <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
+    <row r="6" spans="1:29" ht="15">
       <c r="A6" s="8">
         <v>134244650</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="G6" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>食尸鬼</v>
-      </c>
-      <c r="J6" s="11">
+      <c r="H6" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="10">
         <v>10000</v>
       </c>
-      <c r="K6" s="11">
+      <c r="J6" s="10">
         <v>20000</v>
       </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
       <c r="L6">
         <v>0</v>
       </c>
@@ -1464,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1479,68 +1451,64 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W6">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="X6">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="Y6">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>201347498</v>
       </c>
       <c r="AA6">
-        <v>201347498</v>
+        <v>2</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15">
+    <row r="7" spans="1:29" ht="15">
       <c r="A7" s="8">
         <v>134261362</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>蜘蛛</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="H7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="10">
         <v>10000</v>
       </c>
-      <c r="K7" s="11">
+      <c r="J7" s="10">
         <v>20000</v>
       </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
       <c r="L7">
         <v>0</v>
       </c>
@@ -1557,13 +1525,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1572,706 +1540,675 @@
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W7">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="X7">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="Y7">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA7">
-        <v>201385536</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15">
+    <row r="8" spans="1:29" ht="15">
       <c r="A8" s="8">
         <v>134243024</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>65</v>
       </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>剑圣</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="H8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="10">
         <v>10000</v>
       </c>
-      <c r="K8" s="11">
+      <c r="J8" s="10">
         <v>20000</v>
       </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
       <c r="L8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="N8">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="R8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V8">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W8">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X8">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y8">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>201347498</v>
       </c>
       <c r="AA8">
-        <v>201347498</v>
+        <v>1.77</v>
       </c>
       <c r="AB8">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:30" ht="15">
+    <row r="9" spans="1:29" ht="15">
       <c r="A9" s="8">
         <v>134242228</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
         <v>65</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>山丘之王</v>
-      </c>
-      <c r="J9" s="11">
+      <c r="H9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="10">
         <v>10000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="J9" s="10">
         <v>20000</v>
       </c>
+      <c r="K9">
+        <v>30</v>
+      </c>
       <c r="L9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="O9">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R9">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V9">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W9">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X9">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y9">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>201347498</v>
       </c>
       <c r="AA9">
-        <v>201347498</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="AB9">
-        <v>2.2200000000000002</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:30" ht="15">
+    <row r="10" spans="1:29" ht="15">
       <c r="A10" s="8">
         <v>134260903</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>暗影猎手</v>
-      </c>
-      <c r="J10" s="11">
+      <c r="H10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="10">
         <v>10000</v>
       </c>
-      <c r="K10" s="11">
+      <c r="J10" s="10">
         <v>20000</v>
       </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
       <c r="L10">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="N10">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R10">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V10">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W10">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X10">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y10">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA10">
-        <v>201385536</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB10">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:29">
       <c r="A11">
         <v>134224243</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>89</v>
+      <c r="B11" t="s">
+        <v>63</v>
       </c>
       <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
         <v>65</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>恶魔猎手</v>
-      </c>
-      <c r="J11" s="11">
+      <c r="H11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="10">
         <v>10000</v>
       </c>
-      <c r="K11" s="11">
+      <c r="J11" s="10">
         <v>20000</v>
       </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
       <c r="L11">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R11">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V11">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W11">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X11">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y11">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA11">
-        <v>201385536</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB11">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC11">
         <v>0</v>
       </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:29">
       <c r="A12">
         <v>134250976</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>90</v>
+      <c r="B12" t="s">
+        <v>63</v>
       </c>
       <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>黑暗游侠</v>
-      </c>
-      <c r="J12" s="11">
+      <c r="H12" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="10">
         <v>10000</v>
       </c>
-      <c r="K12" s="11">
+      <c r="J12" s="10">
         <v>20000</v>
       </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
       <c r="L12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="N12">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R12">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V12">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W12">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X12">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y12">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA12">
-        <v>201385536</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB12">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
       </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>134280846</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>牛头人酋长</v>
-      </c>
-      <c r="J13" s="11">
+      <c r="H13" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" s="10">
         <v>10000</v>
       </c>
-      <c r="K13" s="11">
+      <c r="J13" s="10">
         <v>20000</v>
       </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
       <c r="L13">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M13">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="N13">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R13">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V13">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W13">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X13">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y13">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA13">
-        <v>201385536</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB13">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>134233666</v>
       </c>
       <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>炼金术士</v>
-      </c>
-      <c r="J14" s="11">
+      <c r="H14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I14" s="10">
         <v>10000</v>
       </c>
-      <c r="K14" s="11">
+      <c r="J14" s="10">
         <v>20000</v>
       </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
       <c r="L14">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="N14">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="V14">
-        <v>0.2</v>
+        <v>500</v>
       </c>
       <c r="W14">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="X14">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="Y14">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>201385536</v>
       </c>
       <c r="AA14">
-        <v>201385536</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AB14">
-        <v>2.2799999999999998</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G7">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
+  <conditionalFormatting sqref="F6:F7">
+    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11 G14:G1048576 G8 G1:G5">
-    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
+  <conditionalFormatting sqref="F11 F14:F1048576 F8 F1:F5">
+    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G11:G14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="F11:F14">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2295,28 +2232,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -47,6 +47,210 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>普通：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10000
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>穿刺：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10001
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>魔法：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">10002
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英雄：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10003</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>轻甲：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20000
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中甲：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20001
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>重甲：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20002
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>城甲：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20003
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>英雄：</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20004</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y2" authorId="1">
       <text>
         <r>
@@ -70,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -450,12 +654,16 @@
   <si>
     <t>牛头人酋长</t>
   </si>
+  <si>
+    <t>cehua</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +727,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -904,10 +1119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1125,7 +1341,9 @@
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>49</v>
       </c>
@@ -1234,10 +1452,10 @@
         <v>93</v>
       </c>
       <c r="I4" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J4" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -1326,7 +1544,7 @@
         <v>10000</v>
       </c>
       <c r="J5" s="10">
-        <v>20000</v>
+        <v>20002</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1415,7 +1633,7 @@
         <v>10000</v>
       </c>
       <c r="J6" s="10">
-        <v>20000</v>
+        <v>20002</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1501,7 +1719,7 @@
         <v>60</v>
       </c>
       <c r="I7" s="10">
-        <v>10000</v>
+        <v>10001</v>
       </c>
       <c r="J7" s="10">
         <v>20000</v>
@@ -1590,10 +1808,10 @@
         <v>62</v>
       </c>
       <c r="I8" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J8" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1679,10 +1897,10 @@
         <v>66</v>
       </c>
       <c r="I9" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J9" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K9">
         <v>30</v>
@@ -1768,10 +1986,10 @@
         <v>68</v>
       </c>
       <c r="I10" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J10" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1857,10 +2075,10 @@
         <v>94</v>
       </c>
       <c r="I11" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J11" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K11">
         <v>5</v>
@@ -1946,10 +2164,10 @@
         <v>95</v>
       </c>
       <c r="I12" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J12" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K12">
         <v>5</v>
@@ -2035,10 +2253,10 @@
         <v>96</v>
       </c>
       <c r="I13" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J13" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K13">
         <v>5</v>
@@ -2124,10 +2342,10 @@
         <v>87</v>
       </c>
       <c r="I14" s="10">
-        <v>10000</v>
+        <v>10003</v>
       </c>
       <c r="J14" s="10">
-        <v>20000</v>
+        <v>20004</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -2190,25 +2408,25 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F7">
-    <cfRule type="duplicateValues" dxfId="4" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11 F14:F1048576 F8 F1:F5">
-    <cfRule type="duplicateValues" dxfId="2" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F14">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2253,7 +2471,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -451,13 +451,7 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>剑士</t>
-  </si>
-  <si>
     <t>难度1我方小兵</t>
-  </si>
-  <si>
-    <t>jsxb</t>
   </si>
   <si>
     <t>minio</t>
@@ -656,6 +650,14 @@
   </si>
   <si>
     <t>cehua</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1125,7 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1164,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1182,10 +1184,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -1242,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AC1" t="s">
         <v>24</v>
@@ -1271,10 +1273,10 @@
         <v>31</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
@@ -1342,7 +1344,7 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>49</v>
@@ -1360,13 +1362,13 @@
         <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>50</v>
@@ -1411,7 +1413,7 @@
         <v>50</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z3" s="5" t="s">
         <v>48</v>
@@ -1431,25 +1433,25 @@
         <v>134254942</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I4" s="10">
         <v>10003</v>
@@ -1520,7 +1522,7 @@
         <v>134219177</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1532,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="I5" s="10">
         <v>10000</v>
@@ -1609,7 +1611,7 @@
         <v>134244650</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
@@ -1621,13 +1623,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I6" s="10">
         <v>10000</v>
@@ -1698,7 +1700,7 @@
         <v>134261362</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
@@ -1710,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I7" s="10">
         <v>10001</v>
@@ -1787,7 +1789,7 @@
         <v>134243024</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -1799,13 +1801,13 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I8" s="10">
         <v>10003</v>
@@ -1876,7 +1878,7 @@
         <v>134242228</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1888,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I9" s="10">
         <v>10003</v>
@@ -1965,7 +1967,7 @@
         <v>134260903</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1977,13 +1979,13 @@
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" s="10">
         <v>10003</v>
@@ -2054,7 +2056,7 @@
         <v>134224243</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
@@ -2066,13 +2068,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I11" s="10">
         <v>10003</v>
@@ -2143,7 +2145,7 @@
         <v>134250976</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>34</v>
@@ -2155,13 +2157,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I12" s="10">
         <v>10003</v>
@@ -2232,25 +2234,25 @@
         <v>134280846</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I13" s="10">
         <v>10003</v>
@@ -2321,25 +2323,25 @@
         <v>134233666</v>
       </c>
       <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I14" s="10">
         <v>10003</v>
@@ -2450,22 +2452,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -251,7 +251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1">
+    <comment ref="Z2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -451,36 +451,21 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>难度1我方小兵</t>
-  </si>
-  <si>
     <t>minio</t>
   </si>
   <si>
     <t>食尸鬼</t>
   </si>
   <si>
-    <t>难度1敌方小兵</t>
-  </si>
-  <si>
-    <t>ssg</t>
-  </si>
-  <si>
     <t>enemy</t>
   </si>
   <si>
     <t>蜘蛛</t>
   </si>
   <si>
-    <t>zz</t>
-  </si>
-  <si>
     <t>剑圣</t>
   </si>
   <si>
-    <t>英雄</t>
-  </si>
-  <si>
     <t>js</t>
   </si>
   <si>
@@ -536,10 +521,6 @@
   </si>
   <si>
     <t>attack_type</t>
-  </si>
-  <si>
-    <t>召唤师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>力量</t>
@@ -653,11 +634,204 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>bb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>步兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb</t>
+  </si>
+  <si>
+    <t>火枪手</t>
+  </si>
+  <si>
+    <t>女巫</t>
+  </si>
+  <si>
+    <t>龙骑</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>狮鹫</t>
+  </si>
+  <si>
+    <t>地狱火</t>
+  </si>
+  <si>
+    <t>兽人步兵</t>
+  </si>
+  <si>
+    <t>巨魔</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>飞龙</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>绿龙</t>
+  </si>
+  <si>
+    <t>女猎</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>风德</t>
+  </si>
+  <si>
+    <t>精灵龙</t>
+  </si>
+  <si>
+    <t>山岭</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>死灵法师</t>
+  </si>
+  <si>
+    <t>石像鬼</t>
+  </si>
+  <si>
+    <t>憎恶</t>
+  </si>
+  <si>
+    <t>冰霜巨龙</t>
+  </si>
+  <si>
+    <t>步兵</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙骑士</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>双足飞龙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>女猎手</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛禽德鲁伊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>山岭巨人</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>hqs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nw</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lqs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sj</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>srbb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>szfl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ll</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nls</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>gjs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>mqdly</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jll</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sljr</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>qml</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zz</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>slfs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sxg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsjl</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dyh</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>defense_phy</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,18 +974,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1122,10 +1301,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AD36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1147,26 +1329,26 @@
     <col min="16" max="16" width="19.375" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
     <col min="18" max="18" width="17.125" customWidth="1"/>
-    <col min="19" max="19" width="18.25" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="12.625" customWidth="1"/>
-    <col min="24" max="24" width="10.375" customWidth="1"/>
-    <col min="25" max="25" width="17.125" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="17.125" customWidth="1"/>
-    <col min="28" max="28" width="27.125" customWidth="1"/>
-    <col min="29" max="29" width="11.5" customWidth="1"/>
-    <col min="30" max="201" width="9.5" customWidth="1"/>
+    <col min="19" max="20" width="18.25" customWidth="1"/>
+    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="22" max="22" width="12.625" customWidth="1"/>
+    <col min="23" max="23" width="10.875" customWidth="1"/>
+    <col min="24" max="24" width="12.625" customWidth="1"/>
+    <col min="25" max="25" width="10.375" customWidth="1"/>
+    <col min="26" max="26" width="17.125" customWidth="1"/>
+    <col min="27" max="27" width="11.5" customWidth="1"/>
+    <col min="28" max="28" width="17.125" customWidth="1"/>
+    <col min="29" max="29" width="27.125" customWidth="1"/>
+    <col min="30" max="30" width="11.5" customWidth="1"/>
+    <col min="31" max="202" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15">
+    <row r="1" spans="1:30" ht="15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
@@ -1184,10 +1366,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
         <v>73</v>
-      </c>
-      <c r="I1" t="s">
-        <v>78</v>
       </c>
       <c r="J1" t="s">
         <v>2</v>
@@ -1216,41 +1398,44 @@
       <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="15">
+    <row r="2" spans="1:30" ht="15">
       <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
@@ -1273,10 +1458,10 @@
         <v>31</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
         <v>28</v>
@@ -1309,42 +1494,45 @@
         <v>39</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
         <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
         <v>41</v>
       </c>
       <c r="X2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="15">
+    <row r="3" spans="1:30" ht="15">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>49</v>
@@ -1362,13 +1550,13 @@
         <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>50</v>
@@ -1413,164 +1601,171 @@
         <v>50</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AC3" s="5" t="s">
+      <c r="AD3" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="15">
-      <c r="A4" s="8">
+    <row r="4" spans="1:30" s="4" customFormat="1" ht="15">
+      <c r="A4" s="11">
         <v>134254942</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="I4" s="10">
+      <c r="B4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="12">
         <v>10003</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="12">
         <v>20004</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="4">
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="4">
         <v>10</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <v>10</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="4">
         <v>1</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>20</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <v>2</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="V4" s="4">
         <v>0.2</v>
       </c>
-      <c r="V4">
-        <v>500</v>
-      </c>
-      <c r="W4">
-        <v>50</v>
-      </c>
-      <c r="X4">
+      <c r="W4" s="4">
+        <v>400</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
         <v>300</v>
       </c>
-      <c r="Y4">
+      <c r="Z4" s="4">
         <v>1</v>
       </c>
-      <c r="Z4">
+      <c r="AA4" s="4">
+        <f t="shared" ref="AA4:AA12" si="0">IF(Z4=0,201347498,IF(Z4=1,201385536,""))</f>
         <v>201385536</v>
       </c>
-      <c r="AA4">
+      <c r="AB4" s="4">
         <v>2</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="15">
+    <row r="5" spans="1:30" ht="15">
       <c r="A5" s="8">
-        <v>134219177</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>52</v>
+        <v>134243024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10003</v>
+      </c>
+      <c r="J5" s="10">
+        <v>20004</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J5" s="10">
-        <v>20002</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1579,214 +1774,226 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="W5">
-        <v>20</v>
+        <v>750</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
         <v>300</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
         <v>201347498</v>
       </c>
-      <c r="AA5">
-        <v>2</v>
-      </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" ht="15">
+    <row r="6" spans="1:30" ht="15">
       <c r="A6" s="8">
-        <v>134244650</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>134242228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10003</v>
+      </c>
+      <c r="J6" s="10">
+        <v>20004</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0.5</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+      <c r="P6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="Q6">
+        <v>20</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>0.2</v>
+      </c>
+      <c r="W6">
+        <v>1000</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>300</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB6">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7">
+        <v>134224243</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10003</v>
+      </c>
+      <c r="J7" s="10">
+        <v>20004</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0.5</v>
+      </c>
+      <c r="M7">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+      <c r="P7">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="10">
-        <v>10000</v>
-      </c>
-      <c r="J6" s="10">
-        <v>20002</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>10</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>200</v>
-      </c>
-      <c r="W6">
+      <c r="Q7">
         <v>20</v>
       </c>
-      <c r="X6">
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <v>0.2</v>
+      </c>
+      <c r="W7">
+        <v>730</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <v>300</v>
       </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
         <v>201347498</v>
       </c>
-      <c r="AA6">
-        <v>2</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>100</v>
+      <c r="AB7">
+        <v>1.7</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="15">
-      <c r="A7" s="8">
-        <v>134261362</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="10">
-        <v>10001</v>
-      </c>
-      <c r="J7" s="10">
-        <v>20000</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>10</v>
-      </c>
-      <c r="R7">
-        <v>1</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>200</v>
-      </c>
-      <c r="W7">
-        <v>20</v>
-      </c>
-      <c r="X7">
-        <v>300</v>
-      </c>
-      <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7">
-        <v>201385536</v>
-      </c>
-      <c r="AA7">
-        <v>2</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="15">
+    <row r="8" spans="1:30" ht="15">
       <c r="A8" s="8">
-        <v>134243024</v>
+        <v>134260903</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -1795,19 +2002,19 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I8" s="10">
         <v>10003</v>
@@ -1816,10 +2023,10 @@
         <v>20004</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
         <v>30</v>
@@ -1828,10 +2035,10 @@
         <v>3</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q8">
         <v>20</v>
@@ -1843,60 +2050,64 @@
         <v>0</v>
       </c>
       <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>2</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.2</v>
       </c>
-      <c r="V8">
-        <v>500</v>
-      </c>
       <c r="W8">
-        <v>50</v>
+        <v>550</v>
       </c>
       <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>300</v>
       </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
       <c r="Z8">
-        <v>201347498</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1.77</v>
+        <f t="shared" si="0"/>
+        <v>201385536</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="AC8">
         <v>0</v>
       </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" ht="15">
-      <c r="A9" s="8">
-        <v>134242228</v>
+    <row r="9" spans="1:30">
+      <c r="A9">
+        <v>134250976</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="I9" s="10">
         <v>10003</v>
@@ -1905,16 +2116,16 @@
         <v>20004</v>
       </c>
       <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0.5</v>
+      </c>
+      <c r="M9">
         <v>30</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>3</v>
-      </c>
-      <c r="M9">
-        <v>5</v>
-      </c>
-      <c r="N9">
-        <v>0.5</v>
       </c>
       <c r="O9">
         <v>10</v>
@@ -1932,60 +2143,64 @@
         <v>0</v>
       </c>
       <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>2</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.2</v>
       </c>
-      <c r="V9">
-        <v>500</v>
-      </c>
       <c r="W9">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <v>300</v>
       </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
       <c r="Z9">
-        <v>201347498</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>2.2200000000000002</v>
+        <f t="shared" si="0"/>
+        <v>201385536</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" ht="15">
-      <c r="A10" s="8">
-        <v>134260903</v>
+    <row r="10" spans="1:30">
+      <c r="A10">
+        <v>134233666</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
+        <v>79</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="I10" s="10">
         <v>10003</v>
@@ -2021,60 +2236,64 @@
         <v>0</v>
       </c>
       <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
         <v>2</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.2</v>
       </c>
-      <c r="V10">
-        <v>500</v>
-      </c>
       <c r="W10">
-        <v>50</v>
+        <v>1280</v>
       </c>
       <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <v>300</v>
       </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
       <c r="Z10">
-        <v>201385536</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>2.2799999999999998</v>
+        <f t="shared" si="0"/>
+        <v>201347498</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:30">
       <c r="A11">
-        <v>134224243</v>
+        <v>134280846</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>88</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I11" s="10">
         <v>10003</v>
@@ -2110,325 +2329,2501 @@
         <v>0</v>
       </c>
       <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
         <v>2</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.2</v>
       </c>
-      <c r="V11">
-        <v>500</v>
-      </c>
       <c r="W11">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>300</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB11">
+        <v>1.7</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" s="4" customFormat="1" ht="15">
+      <c r="A12" s="11">
+        <v>134224396</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="4">
         <v>1</v>
       </c>
-      <c r="Z11">
-        <v>201385536</v>
-      </c>
-      <c r="AA11">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J12" s="12">
+        <v>20002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>12</v>
+      </c>
+      <c r="R12" s="4">
+        <v>12</v>
+      </c>
+      <c r="S12" s="4">
+        <v>0</v>
+      </c>
+      <c r="T12" s="4">
+        <v>0</v>
+      </c>
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
+        <v>0</v>
+      </c>
+      <c r="W12" s="4">
+        <v>420</v>
+      </c>
+      <c r="X12" s="4">
+        <f>W12</f>
+        <v>420</v>
+      </c>
+      <c r="Y12" s="4">
+        <v>300</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="0"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
-      <c r="A12">
-        <v>134250976</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="10">
-        <v>10003</v>
-      </c>
-      <c r="J12" s="10">
-        <v>20004</v>
-      </c>
-      <c r="K12">
-        <v>5</v>
-      </c>
-      <c r="L12">
-        <v>0.5</v>
-      </c>
-      <c r="M12">
-        <v>30</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
-        <v>10</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>20</v>
-      </c>
-      <c r="R12">
-        <v>2</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>0.2</v>
-      </c>
-      <c r="V12">
-        <v>500</v>
-      </c>
-      <c r="W12">
-        <v>50</v>
-      </c>
-      <c r="X12">
-        <v>300</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>201385536</v>
-      </c>
-      <c r="AA12">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13">
-        <v>134280846</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>90</v>
+    <row r="13" spans="1:30" ht="15">
+      <c r="A13" s="8">
+        <v>134279938</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" t="s">
-        <v>63</v>
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="10">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="J13" s="10">
-        <v>20004</v>
+        <v>20001</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>20</v>
       </c>
       <c r="R13">
+        <v>20</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>330</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13:X36" si="1">W13</f>
+        <v>330</v>
+      </c>
+      <c r="Y13">
+        <v>300</v>
+      </c>
+      <c r="Z13">
+        <v>1</v>
+      </c>
+      <c r="AA13">
+        <f>IF(Z13=0,201347498,IF(Z13=1,201385536,""))</f>
+        <v>201385536</v>
+      </c>
+      <c r="AB13">
+        <v>1.5</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="15">
+      <c r="A14" s="8">
+        <v>134275911</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J14" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>30</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>300</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="Y14">
+        <v>300</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14:AA36" si="2">IF(Z14=0,201347498,IF(Z14=1,201385536,""))</f>
+        <v>201385536</v>
+      </c>
+      <c r="AB14">
         <v>2</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="15">
+      <c r="A15" s="8">
+        <v>134222625</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J15" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>40</v>
+      </c>
+      <c r="R15">
+        <v>40</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>400</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="Y15">
+        <v>300</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB15">
+        <v>1.6</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="15">
+      <c r="A16" s="8">
+        <v>134244200</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J16" s="10">
+        <v>20002</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>40</v>
+      </c>
+      <c r="R16">
+        <v>40</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1000</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="Y16">
+        <v>300</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB16">
         <v>2</v>
       </c>
-      <c r="U13">
-        <v>0.2</v>
-      </c>
-      <c r="V13">
-        <v>500</v>
-      </c>
-      <c r="W13">
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="15">
+      <c r="A17" s="8">
+        <v>134228489</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J17" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>50</v>
       </c>
-      <c r="X13">
+      <c r="R17">
+        <v>50</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>600</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="Y17">
         <v>300</v>
       </c>
-      <c r="Y13">
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="Z13">
+      <c r="AA17">
+        <f t="shared" si="2"/>
         <v>201385536</v>
       </c>
-      <c r="AA13">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
+      <c r="AB17">
+        <v>1.8</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
-      <c r="A14">
-        <v>134233666</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14">
+    <row r="18" spans="1:30" s="4" customFormat="1" ht="15">
+      <c r="A18" s="11">
+        <v>134238766</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4">
+        <f>D12*1.1</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <f>D18</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J18" s="12">
+        <v>20002</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0</v>
+      </c>
+      <c r="O18" s="4">
+        <v>0</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <f>Q12*1.1</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="R18" s="4">
+        <f>Q18</f>
+        <v>13.200000000000001</v>
+      </c>
+      <c r="S18" s="4">
+        <v>0</v>
+      </c>
+      <c r="T18" s="4">
+        <v>0</v>
+      </c>
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
+        <v>0</v>
+      </c>
+      <c r="W18" s="4">
+        <f>W12*1.1</f>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="X18" s="4">
+        <f t="shared" si="1"/>
+        <v>462.00000000000006</v>
+      </c>
+      <c r="Y18" s="4">
+        <v>300</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15">
+      <c r="A19" s="8">
+        <v>134255712</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D29" si="3">D13*1.1</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E36" si="4">D19</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J19" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q29" si="5">Q13*1.1</f>
+        <v>22</v>
+      </c>
+      <c r="R19">
+        <f t="shared" ref="R19:R35" si="6">Q19</f>
+        <v>22</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ref="W19:W29" si="7">W13*1.1</f>
+        <v>363.00000000000006</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>363.00000000000006</v>
+      </c>
+      <c r="Y19">
+        <v>300</v>
+      </c>
+      <c r="Z19">
+        <v>1</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB19">
+        <v>1.5</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15">
+      <c r="A20" s="8">
+        <v>134264703</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I20" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J20" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="7"/>
+        <v>330</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="Y20">
+        <v>300</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB20">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="15">
+      <c r="A21" s="8">
+        <v>134232217</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I21" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J21" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="7"/>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="1"/>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="Y21">
+        <v>300</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB21">
+        <v>1.6</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="15">
+      <c r="A22" s="8">
+        <v>134219177</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="4"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I22" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J22" s="10">
+        <v>20002</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="7"/>
+        <v>1100</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="Y22">
+        <v>300</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB22">
         <v>2</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" s="10">
-        <v>10003</v>
-      </c>
-      <c r="J14" s="10">
-        <v>20004</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>30</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14">
-        <v>10</v>
-      </c>
-      <c r="P14">
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15">
+      <c r="A23" s="8">
+        <v>134269180</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J23" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="7"/>
+        <v>660</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="1"/>
+        <v>660</v>
+      </c>
+      <c r="Y23">
+        <v>300</v>
+      </c>
+      <c r="Z23">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>20</v>
-      </c>
-      <c r="R14">
+      <c r="AA23">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB23">
+        <v>1.8</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" s="4" customFormat="1" ht="15">
+      <c r="A24" s="11">
+        <v>134264949</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="4">
+        <f t="shared" si="3"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J24" s="12">
+        <v>20002</v>
+      </c>
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="5"/>
+        <v>14.520000000000003</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="6"/>
+        <v>14.520000000000003</v>
+      </c>
+      <c r="S24" s="4">
+        <v>0</v>
+      </c>
+      <c r="T24" s="4">
+        <v>0</v>
+      </c>
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
+        <v>0</v>
+      </c>
+      <c r="W24" s="4">
+        <f t="shared" si="7"/>
+        <v>508.2000000000001</v>
+      </c>
+      <c r="X24" s="4">
+        <f t="shared" si="1"/>
+        <v>508.2000000000001</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>300</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="15">
+      <c r="A25" s="8">
+        <v>134221729</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>4.8400000000000007</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J25" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>24.200000000000003</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="7"/>
+        <v>399.30000000000007</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="1"/>
+        <v>399.30000000000007</v>
+      </c>
+      <c r="Y25">
+        <v>300</v>
+      </c>
+      <c r="Z25">
+        <v>1</v>
+      </c>
+      <c r="AA25">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB25">
+        <v>1.5</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="15">
+      <c r="A26" s="8">
+        <v>134227758</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J26" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>36.300000000000004</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="7"/>
+        <v>363.00000000000006</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="1"/>
+        <v>363.00000000000006</v>
+      </c>
+      <c r="Y26">
+        <v>300</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB26">
         <v>2</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="15">
+      <c r="A27" s="8">
+        <v>134256423</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I27" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J27" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="7"/>
+        <v>484.00000000000011</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="1"/>
+        <v>484.00000000000011</v>
+      </c>
+      <c r="Y27">
+        <v>300</v>
+      </c>
+      <c r="Z27">
+        <v>1</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB27">
+        <v>1.6</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="15">
+      <c r="A28" s="8">
+        <v>134224732</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="3"/>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>7.2600000000000016</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I28" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J28" s="10">
+        <v>20002</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="7"/>
+        <v>1210</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="1"/>
+        <v>1210</v>
+      </c>
+      <c r="Y28">
+        <v>300</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB28">
         <v>2</v>
       </c>
-      <c r="U14">
-        <v>0.2</v>
-      </c>
-      <c r="V14">
-        <v>500</v>
-      </c>
-      <c r="W14">
-        <v>50</v>
-      </c>
-      <c r="X14">
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="15">
+      <c r="A29" s="8">
+        <v>134263920</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="3"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>12.100000000000001</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J29" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>60.500000000000014</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>60.500000000000014</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="7"/>
+        <v>726.00000000000011</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="1"/>
+        <v>726.00000000000011</v>
+      </c>
+      <c r="Y29">
         <v>300</v>
       </c>
-      <c r="Y14">
+      <c r="Z29">
         <v>1</v>
       </c>
-      <c r="Z14">
+      <c r="AA29">
+        <f t="shared" si="2"/>
         <v>201385536</v>
       </c>
-      <c r="AA14">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
+      <c r="AB29">
+        <v>1.8</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="4" customFormat="1" ht="15">
+      <c r="A30" s="11">
+        <v>134261362</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4">
+        <f>D12*1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I30" s="12">
+        <v>10000</v>
+      </c>
+      <c r="J30" s="12">
+        <v>20002</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <f>Q12*1.2</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="6"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="S30" s="4">
+        <v>0</v>
+      </c>
+      <c r="T30" s="4">
+        <v>0</v>
+      </c>
+      <c r="U30" s="4">
+        <v>0</v>
+      </c>
+      <c r="V30" s="4">
+        <v>0</v>
+      </c>
+      <c r="W30" s="4">
+        <f>W12*1.2</f>
+        <v>504</v>
+      </c>
+      <c r="X30" s="4">
+        <f t="shared" si="1"/>
+        <v>504</v>
+      </c>
+      <c r="Y30" s="4">
+        <v>300</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" ht="15">
+      <c r="A31" s="8">
+        <v>134219259</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D35" si="8">D13*1.2</f>
+        <v>4.8</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J31" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" ref="Q31:Q35" si="9">Q13*1.2</f>
+        <v>24</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f t="shared" ref="W31:W35" si="10">W13*1.2</f>
+        <v>396</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="Y31">
+        <v>300</v>
+      </c>
+      <c r="Z31">
+        <v>1</v>
+      </c>
+      <c r="AA31">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB31">
+        <v>1.5</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" ht="15">
+      <c r="A32" s="8">
+        <v>134222721</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J32" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>36</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="10"/>
+        <v>360</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="Y32">
+        <v>300</v>
+      </c>
+      <c r="Z32">
+        <v>1</v>
+      </c>
+      <c r="AA32">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="15">
+      <c r="A33" s="8">
+        <v>134267339</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" s="10">
+        <v>10001</v>
+      </c>
+      <c r="J33" s="10">
+        <v>20000</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="10"/>
+        <v>480</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="1"/>
+        <v>480</v>
+      </c>
+      <c r="Y33">
+        <v>300</v>
+      </c>
+      <c r="Z33">
+        <v>1</v>
+      </c>
+      <c r="AA33">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB33">
+        <v>1.6</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15">
+      <c r="A34" s="8">
+        <v>134244650</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="8"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="10">
+        <v>10000</v>
+      </c>
+      <c r="J34" s="10">
+        <v>20002</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="10"/>
+        <v>1200</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="1"/>
+        <v>1200</v>
+      </c>
+      <c r="Y34">
+        <v>300</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" ht="15">
+      <c r="A35" s="8">
+        <v>134230115</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J35" s="10">
+        <v>20001</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="9"/>
+        <v>60</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="10"/>
+        <v>720</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="1"/>
+        <v>720</v>
+      </c>
+      <c r="Y35">
+        <v>300</v>
+      </c>
+      <c r="Z35">
+        <v>1</v>
+      </c>
+      <c r="AA35">
+        <f t="shared" si="2"/>
+        <v>201385536</v>
+      </c>
+      <c r="AB35">
+        <v>1.8</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" ht="15">
+      <c r="A36" s="8">
+        <v>134242944</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>15</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I36" s="10">
+        <v>10002</v>
+      </c>
+      <c r="J36" s="10">
+        <v>20002</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>Q35*1.2</f>
+        <v>72</v>
+      </c>
+      <c r="R36">
+        <v>72</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>3000</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y36">
+        <v>300</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" si="2"/>
+        <v>201347498</v>
+      </c>
+      <c r="AB36">
+        <v>1.5</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="duplicateValues" dxfId="7" priority="16"/>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="duplicateValues" dxfId="6" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6:F7">
-    <cfRule type="duplicateValues" dxfId="5" priority="17"/>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11 F14:F1048576 F8 F1:F5">
-    <cfRule type="duplicateValues" dxfId="3" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="F7 F9:F11">
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12:F1048576 F10 F7 F1:F5">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2452,28 +4847,28 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -832,6 +832,14 @@
   </si>
   <si>
     <t>defense_phy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>死灵法师</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1304,10 +1312,10 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M46" sqref="M46"/>
+      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1654,25 +1662,25 @@
         <v>10</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="4">
         <v>10</v>
       </c>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" s="4">
         <v>10</v>
       </c>
       <c r="P4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4">
         <v>0</v>
@@ -1744,28 +1752,28 @@
         <v>20004</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1837,28 +1845,28 @@
         <v>20004</v>
       </c>
       <c r="K6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>20</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1930,28 +1938,28 @@
         <v>20004</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -2023,28 +2031,28 @@
         <v>20004</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2116,28 +2124,28 @@
         <v>20004</v>
       </c>
       <c r="K9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>30</v>
       </c>
-      <c r="N9">
-        <v>3</v>
-      </c>
-      <c r="O9">
-        <v>10</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>20</v>
-      </c>
       <c r="R9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2209,28 +2217,28 @@
         <v>20004</v>
       </c>
       <c r="K10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>20</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2302,28 +2310,28 @@
         <v>20004</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2416,7 +2424,8 @@
         <v>12</v>
       </c>
       <c r="R12" s="4">
-        <v>12</v>
+        <f>Q12*0.1</f>
+        <v>1.2000000000000002</v>
       </c>
       <c r="S12" s="4">
         <v>0</v>
@@ -2510,7 +2519,8 @@
         <v>20</v>
       </c>
       <c r="R13">
-        <v>20</v>
+        <f t="shared" ref="R13:R36" si="1">Q13*0.1</f>
+        <v>2</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2528,7 +2538,7 @@
         <v>330</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:X36" si="1">W13</f>
+        <f t="shared" ref="X13:X36" si="2">W13</f>
         <v>330</v>
       </c>
       <c r="Y13">
@@ -2604,7 +2614,8 @@
         <v>30</v>
       </c>
       <c r="R14">
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2622,7 +2633,7 @@
         <v>300</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>300</v>
       </c>
       <c r="Y14">
@@ -2632,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14:AA36" si="2">IF(Z14=0,201347498,IF(Z14=1,201385536,""))</f>
+        <f t="shared" ref="AA14:AA36" si="3">IF(Z14=0,201347498,IF(Z14=1,201385536,""))</f>
         <v>201385536</v>
       </c>
       <c r="AB14">
@@ -2698,7 +2709,8 @@
         <v>40</v>
       </c>
       <c r="R15">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="S15">
         <v>0</v>
@@ -2716,7 +2728,7 @@
         <v>400</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
       <c r="Y15">
@@ -2726,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB15">
@@ -2792,7 +2804,8 @@
         <v>40</v>
       </c>
       <c r="R16">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -2810,7 +2823,7 @@
         <v>1000</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="Y16">
@@ -2820,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB16">
@@ -2886,7 +2899,8 @@
         <v>50</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -2904,7 +2918,7 @@
         <v>600</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="Y17">
@@ -2914,7 +2928,7 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB17">
@@ -2983,8 +2997,8 @@
         <v>13.200000000000001</v>
       </c>
       <c r="R18" s="4">
-        <f>Q18</f>
-        <v>13.200000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.3200000000000003</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -3003,7 +3017,7 @@
         <v>462.00000000000006</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>462.00000000000006</v>
       </c>
       <c r="Y18" s="4">
@@ -3013,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB18" s="4">
@@ -3037,11 +3051,11 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D29" si="3">D13*1.1</f>
+        <f t="shared" ref="D19:D29" si="4">D13*1.1</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E36" si="4">D19</f>
+        <f t="shared" ref="E19:E36" si="5">D19</f>
         <v>4.4000000000000004</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -3078,12 +3092,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q29" si="5">Q13*1.1</f>
+        <f t="shared" ref="Q19:Q29" si="6">Q13*1.1</f>
         <v>22</v>
       </c>
       <c r="R19">
-        <f t="shared" ref="R19:R35" si="6">Q19</f>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3102,7 +3116,7 @@
         <v>363.00000000000006</v>
       </c>
       <c r="X19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>363.00000000000006</v>
       </c>
       <c r="Y19">
@@ -3112,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB19">
@@ -3136,13 +3150,13 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <f t="shared" si="3"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E20">
         <f t="shared" si="4"/>
         <v>6.6000000000000005</v>
       </c>
+      <c r="E20">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000005</v>
+      </c>
       <c r="F20" s="3" t="s">
         <v>128</v>
       </c>
@@ -3177,12 +3191,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="R20">
         <f t="shared" si="6"/>
         <v>33</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3201,7 +3215,7 @@
         <v>330</v>
       </c>
       <c r="X20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>330</v>
       </c>
       <c r="Y20">
@@ -3211,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB20">
@@ -3235,13 +3249,13 @@
         <v>32</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E21">
         <f t="shared" si="4"/>
         <v>6.6000000000000005</v>
       </c>
+      <c r="E21">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000005</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>129</v>
       </c>
@@ -3276,12 +3290,12 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="R21">
         <f t="shared" si="6"/>
         <v>44</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3300,7 +3314,7 @@
         <v>440.00000000000006</v>
       </c>
       <c r="X21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>440.00000000000006</v>
       </c>
       <c r="Y21">
@@ -3310,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB21">
@@ -3334,13 +3348,13 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <f t="shared" si="3"/>
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="E22">
         <f t="shared" si="4"/>
         <v>6.6000000000000005</v>
       </c>
+      <c r="E22">
+        <f t="shared" si="5"/>
+        <v>6.6000000000000005</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>130</v>
       </c>
@@ -3375,12 +3389,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="R22">
         <f t="shared" si="6"/>
         <v>44</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3399,7 +3413,7 @@
         <v>1100</v>
       </c>
       <c r="X22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
       <c r="Y22">
@@ -3409,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB22">
@@ -3433,13 +3447,13 @@
         <v>32</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="E23">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
+      <c r="E23">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>131</v>
       </c>
@@ -3474,12 +3488,12 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="5"/>
-        <v>55.000000000000007</v>
-      </c>
-      <c r="R23">
         <f t="shared" si="6"/>
         <v>55.000000000000007</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="1"/>
+        <v>5.5000000000000009</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3498,7 +3512,7 @@
         <v>660</v>
       </c>
       <c r="X23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>660</v>
       </c>
       <c r="Y23">
@@ -3508,7 +3522,7 @@
         <v>1</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB23">
@@ -3532,13 +3546,13 @@
         <v>32</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="E24" s="4">
         <f t="shared" si="4"/>
         <v>1.2100000000000002</v>
       </c>
+      <c r="E24" s="4">
+        <f t="shared" si="5"/>
+        <v>1.2100000000000002</v>
+      </c>
       <c r="F24" s="14" t="s">
         <v>132</v>
       </c>
@@ -3573,12 +3587,12 @@
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="5"/>
-        <v>14.520000000000003</v>
-      </c>
-      <c r="R24" s="4">
         <f t="shared" si="6"/>
         <v>14.520000000000003</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4520000000000004</v>
       </c>
       <c r="S24" s="4">
         <v>0</v>
@@ -3597,7 +3611,7 @@
         <v>508.2000000000001</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>508.2000000000001</v>
       </c>
       <c r="Y24" s="4">
@@ -3607,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB24" s="4">
@@ -3631,13 +3645,13 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>4.8400000000000007</v>
-      </c>
-      <c r="E25">
         <f t="shared" si="4"/>
         <v>4.8400000000000007</v>
       </c>
+      <c r="E25">
+        <f t="shared" si="5"/>
+        <v>4.8400000000000007</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>133</v>
       </c>
@@ -3672,12 +3686,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="5"/>
-        <v>24.200000000000003</v>
-      </c>
-      <c r="R25">
         <f t="shared" si="6"/>
         <v>24.200000000000003</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>2.4200000000000004</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3696,7 +3710,7 @@
         <v>399.30000000000007</v>
       </c>
       <c r="X25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>399.30000000000007</v>
       </c>
       <c r="Y25">
@@ -3706,7 +3720,7 @@
         <v>1</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB25">
@@ -3730,13 +3744,13 @@
         <v>32</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>7.2600000000000016</v>
-      </c>
-      <c r="E26">
         <f t="shared" si="4"/>
         <v>7.2600000000000016</v>
       </c>
+      <c r="E26">
+        <f t="shared" si="5"/>
+        <v>7.2600000000000016</v>
+      </c>
       <c r="F26" s="3" t="s">
         <v>134</v>
       </c>
@@ -3771,12 +3785,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="5"/>
-        <v>36.300000000000004</v>
-      </c>
-      <c r="R26">
         <f t="shared" si="6"/>
         <v>36.300000000000004</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>3.6300000000000008</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3795,7 +3809,7 @@
         <v>363.00000000000006</v>
       </c>
       <c r="X26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>363.00000000000006</v>
       </c>
       <c r="Y26">
@@ -3805,7 +3819,7 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB26">
@@ -3829,13 +3843,13 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <f t="shared" si="3"/>
-        <v>7.2600000000000016</v>
-      </c>
-      <c r="E27">
         <f t="shared" si="4"/>
         <v>7.2600000000000016</v>
       </c>
+      <c r="E27">
+        <f t="shared" si="5"/>
+        <v>7.2600000000000016</v>
+      </c>
       <c r="F27" s="3" t="s">
         <v>135</v>
       </c>
@@ -3870,12 +3884,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
-      </c>
-      <c r="R27">
         <f t="shared" si="6"/>
         <v>48.400000000000006</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="1"/>
+        <v>4.8400000000000007</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3894,7 +3908,7 @@
         <v>484.00000000000011</v>
       </c>
       <c r="X27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>484.00000000000011</v>
       </c>
       <c r="Y27">
@@ -3904,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB27">
@@ -3928,13 +3942,13 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
-        <v>7.2600000000000016</v>
-      </c>
-      <c r="E28">
         <f t="shared" si="4"/>
         <v>7.2600000000000016</v>
       </c>
+      <c r="E28">
+        <f t="shared" si="5"/>
+        <v>7.2600000000000016</v>
+      </c>
       <c r="F28" s="3" t="s">
         <v>136</v>
       </c>
@@ -3969,12 +3983,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>48.400000000000006</v>
-      </c>
-      <c r="R28">
         <f t="shared" si="6"/>
         <v>48.400000000000006</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="1"/>
+        <v>4.8400000000000007</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3993,7 +4007,7 @@
         <v>1210</v>
       </c>
       <c r="X28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1210</v>
       </c>
       <c r="Y28">
@@ -4003,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB28">
@@ -4027,13 +4041,13 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
-        <v>12.100000000000001</v>
-      </c>
-      <c r="E29">
         <f t="shared" si="4"/>
         <v>12.100000000000001</v>
       </c>
+      <c r="E29">
+        <f t="shared" si="5"/>
+        <v>12.100000000000001</v>
+      </c>
       <c r="F29" s="3" t="s">
         <v>137</v>
       </c>
@@ -4068,12 +4082,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="5"/>
-        <v>60.500000000000014</v>
-      </c>
-      <c r="R29">
         <f t="shared" si="6"/>
         <v>60.500000000000014</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="1"/>
+        <v>6.0500000000000016</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4092,7 +4106,7 @@
         <v>726.00000000000011</v>
       </c>
       <c r="X29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>726.00000000000011</v>
       </c>
       <c r="Y29">
@@ -4102,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB29">
@@ -4120,7 +4134,7 @@
         <v>134261362</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>32</v>
@@ -4130,7 +4144,7 @@
         <v>1.2</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.2</v>
       </c>
       <c r="F30" s="14" t="s">
@@ -4171,8 +4185,8 @@
         <v>14.399999999999999</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="6"/>
-        <v>14.399999999999999</v>
+        <f t="shared" si="1"/>
+        <v>1.44</v>
       </c>
       <c r="S30" s="4">
         <v>0</v>
@@ -4191,7 +4205,7 @@
         <v>504</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>504</v>
       </c>
       <c r="Y30" s="4">
@@ -4201,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB30" s="4">
@@ -4229,7 +4243,7 @@
         <v>4.8</v>
       </c>
       <c r="E31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -4270,8 +4284,8 @@
         <v>24</v>
       </c>
       <c r="R31">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4290,7 +4304,7 @@
         <v>396</v>
       </c>
       <c r="X31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>396</v>
       </c>
       <c r="Y31">
@@ -4300,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB31">
@@ -4318,7 +4332,7 @@
         <v>134222721</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C32" t="s">
         <v>32</v>
@@ -4328,7 +4342,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="E32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -4369,8 +4383,8 @@
         <v>36</v>
       </c>
       <c r="R32">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>3.6</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4389,7 +4403,7 @@
         <v>360</v>
       </c>
       <c r="X32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
       <c r="Y32">
@@ -4399,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB32">
@@ -4427,7 +4441,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="E33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -4468,8 +4482,8 @@
         <v>48</v>
       </c>
       <c r="R33">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4488,7 +4502,7 @@
         <v>480</v>
       </c>
       <c r="X33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>480</v>
       </c>
       <c r="Y33">
@@ -4498,7 +4512,7 @@
         <v>1</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB33">
@@ -4526,7 +4540,7 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.1999999999999993</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -4567,8 +4581,8 @@
         <v>48</v>
       </c>
       <c r="R34">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>4.8000000000000007</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4587,7 +4601,7 @@
         <v>1200</v>
       </c>
       <c r="X34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="Y34">
@@ -4597,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB34">
@@ -4625,7 +4639,7 @@
         <v>12</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -4666,8 +4680,8 @@
         <v>60</v>
       </c>
       <c r="R35">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4686,7 +4700,7 @@
         <v>720</v>
       </c>
       <c r="X35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
       <c r="Y35">
@@ -4696,7 +4710,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201385536</v>
       </c>
       <c r="AB35">
@@ -4723,7 +4737,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -4764,7 +4778,8 @@
         <v>72</v>
       </c>
       <c r="R36">
-        <v>72</v>
+        <f t="shared" si="1"/>
+        <v>7.2</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4782,7 +4797,7 @@
         <v>3000</v>
       </c>
       <c r="X36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="Y36">
@@ -4792,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>201347498</v>
       </c>
       <c r="AB36">
@@ -4808,22 +4823,22 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="duplicateValues" dxfId="4" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F11">
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F1048576 F10 F7 F1:F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4868,7 +4883,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
-    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -1315,7 +1315,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1662,19 +1662,19 @@
         <v>10</v>
       </c>
       <c r="L4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4">
         <v>10</v>
       </c>
       <c r="N4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O4" s="4">
         <v>10</v>
       </c>
       <c r="P4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="4">
         <v>30</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="U4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V4" s="4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4">
         <v>400</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>750</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>1000</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>730</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W8">
         <v>550</v>
@@ -2154,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W9">
         <v>380</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W10">
         <v>1280</v>
@@ -2340,10 +2340,10 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="W11">
         <v>800</v>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -1312,10 +1312,10 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2385,7 +2385,8 @@
         <v>1</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <f>D12*0.1</f>
+        <v>0.1</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>90</v>
@@ -2480,7 +2481,8 @@
         <v>4</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <f t="shared" ref="E13:E36" si="1">D13*0.1</f>
+        <v>0.4</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>121</v>
@@ -2519,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="R13">
-        <f t="shared" ref="R13:R36" si="1">Q13*0.1</f>
+        <f t="shared" ref="R13:R36" si="2">Q13*0.1</f>
         <v>2</v>
       </c>
       <c r="S13">
@@ -2538,7 +2540,7 @@
         <v>330</v>
       </c>
       <c r="X13">
-        <f t="shared" ref="X13:X36" si="2">W13</f>
+        <f t="shared" ref="X13:X36" si="3">W13</f>
         <v>330</v>
       </c>
       <c r="Y13">
@@ -2575,7 +2577,8 @@
         <v>6</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>122</v>
@@ -2614,7 +2617,7 @@
         <v>30</v>
       </c>
       <c r="R14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="S14">
@@ -2633,7 +2636,7 @@
         <v>300</v>
       </c>
       <c r="X14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="Y14">
@@ -2643,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="AA14">
-        <f t="shared" ref="AA14:AA36" si="3">IF(Z14=0,201347498,IF(Z14=1,201385536,""))</f>
+        <f t="shared" ref="AA14:AA36" si="4">IF(Z14=0,201347498,IF(Z14=1,201385536,""))</f>
         <v>201385536</v>
       </c>
       <c r="AB14">
@@ -2670,7 +2673,8 @@
         <v>6</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>123</v>
@@ -2709,7 +2713,7 @@
         <v>40</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S15">
@@ -2728,7 +2732,7 @@
         <v>400</v>
       </c>
       <c r="X15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="Y15">
@@ -2738,7 +2742,7 @@
         <v>1</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB15">
@@ -2765,7 +2769,8 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>124</v>
@@ -2804,7 +2809,7 @@
         <v>40</v>
       </c>
       <c r="R16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="S16">
@@ -2823,7 +2828,7 @@
         <v>1000</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1000</v>
       </c>
       <c r="Y16">
@@ -2833,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB16">
@@ -2860,7 +2865,8 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>10</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>125</v>
@@ -2899,7 +2905,7 @@
         <v>50</v>
       </c>
       <c r="R17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="S17">
@@ -2918,7 +2924,7 @@
         <v>600</v>
       </c>
       <c r="X17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="Y17">
@@ -2928,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB17">
@@ -2952,12 +2958,12 @@
         <v>32</v>
       </c>
       <c r="D18" s="4">
-        <f>D12*1.1</f>
-        <v>1.1000000000000001</v>
+        <f>D12*1.4</f>
+        <v>1.4</v>
       </c>
       <c r="E18" s="4">
-        <f>D18</f>
-        <v>1.1000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.13999999999999999</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>126</v>
@@ -2993,12 +2999,12 @@
         <v>0</v>
       </c>
       <c r="Q18" s="4">
-        <f>Q12*1.1</f>
-        <v>13.200000000000001</v>
+        <f>Q12*1.4</f>
+        <v>16.799999999999997</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="1"/>
-        <v>1.3200000000000003</v>
+        <f t="shared" si="2"/>
+        <v>1.6799999999999997</v>
       </c>
       <c r="S18" s="4">
         <v>0</v>
@@ -3017,7 +3023,7 @@
         <v>462.00000000000006</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>462.00000000000006</v>
       </c>
       <c r="Y18" s="4">
@@ -3027,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB18" s="4">
@@ -3051,12 +3057,12 @@
         <v>32</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D29" si="4">D13*1.1</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" ref="D19:D23" si="5">D13*1.4</f>
+        <v>5.6</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:E36" si="5">D19</f>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="1"/>
+        <v>0.55999999999999994</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>127</v>
@@ -3092,12 +3098,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q29" si="6">Q13*1.1</f>
-        <v>22</v>
+        <f t="shared" ref="Q19:Q23" si="6">Q13*1.4</f>
+        <v>28</v>
       </c>
       <c r="R19">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="2"/>
+        <v>2.8000000000000003</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3116,7 +3122,7 @@
         <v>363.00000000000006</v>
       </c>
       <c r="X19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>363.00000000000006</v>
       </c>
       <c r="Y19">
@@ -3126,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB19">
@@ -3150,12 +3156,12 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="5"/>
+        <v>8.3999999999999986</v>
       </c>
       <c r="E20">
-        <f t="shared" si="5"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.83999999999999986</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>128</v>
@@ -3192,11 +3198,11 @@
       </c>
       <c r="Q20">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="R20">
-        <f t="shared" si="1"/>
-        <v>3.3000000000000003</v>
+        <f t="shared" si="2"/>
+        <v>4.2</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -3215,7 +3221,7 @@
         <v>330</v>
       </c>
       <c r="X20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="Y20">
@@ -3225,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB20">
@@ -3249,12 +3255,12 @@
         <v>32</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="5"/>
+        <v>8.3999999999999986</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.83999999999999986</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>129</v>
@@ -3291,11 +3297,11 @@
       </c>
       <c r="Q21">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R21">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>5.6000000000000005</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3314,7 +3320,7 @@
         <v>440.00000000000006</v>
       </c>
       <c r="X21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>440.00000000000006</v>
       </c>
       <c r="Y21">
@@ -3324,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB21">
@@ -3348,12 +3354,12 @@
         <v>32</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="5"/>
+        <v>8.3999999999999986</v>
       </c>
       <c r="E22">
-        <f t="shared" si="5"/>
-        <v>6.6000000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.83999999999999986</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>130</v>
@@ -3390,11 +3396,11 @@
       </c>
       <c r="Q22">
         <f t="shared" si="6"/>
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="R22">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>5.6000000000000005</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3413,7 +3419,7 @@
         <v>1100</v>
       </c>
       <c r="X22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1100</v>
       </c>
       <c r="Y22">
@@ -3423,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB22">
@@ -3447,12 +3453,12 @@
         <v>32</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>14</v>
       </c>
       <c r="E23">
-        <f t="shared" si="5"/>
-        <v>11</v>
+        <f t="shared" si="1"/>
+        <v>1.4000000000000001</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>131</v>
@@ -3489,11 +3495,11 @@
       </c>
       <c r="Q23">
         <f t="shared" si="6"/>
-        <v>55.000000000000007</v>
+        <v>70</v>
       </c>
       <c r="R23">
-        <f t="shared" si="1"/>
-        <v>5.5000000000000009</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -3512,7 +3518,7 @@
         <v>660</v>
       </c>
       <c r="X23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>660</v>
       </c>
       <c r="Y23">
@@ -3522,7 +3528,7 @@
         <v>1</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB23">
@@ -3546,12 +3552,12 @@
         <v>32</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="4"/>
-        <v>1.2100000000000002</v>
+        <f>D18*1.4</f>
+        <v>1.9599999999999997</v>
       </c>
       <c r="E24" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2100000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.19599999999999998</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>132</v>
@@ -3587,12 +3593,12 @@
         <v>0</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="6"/>
-        <v>14.520000000000003</v>
+        <f>Q18*1.4</f>
+        <v>23.519999999999996</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4520000000000004</v>
+        <f t="shared" si="2"/>
+        <v>2.3519999999999999</v>
       </c>
       <c r="S24" s="4">
         <v>0</v>
@@ -3611,7 +3617,7 @@
         <v>508.2000000000001</v>
       </c>
       <c r="X24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>508.2000000000001</v>
       </c>
       <c r="Y24" s="4">
@@ -3621,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="AA24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB24" s="4">
@@ -3645,12 +3651,12 @@
         <v>32</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
-        <v>4.8400000000000007</v>
+        <f t="shared" ref="D25:D29" si="8">D19*1.4</f>
+        <v>7.839999999999999</v>
       </c>
       <c r="E25">
-        <f t="shared" si="5"/>
-        <v>4.8400000000000007</v>
+        <f t="shared" si="1"/>
+        <v>0.78399999999999992</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>133</v>
@@ -3686,12 +3692,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
-        <v>24.200000000000003</v>
+        <f t="shared" ref="Q25:Q29" si="9">Q19*1.4</f>
+        <v>39.199999999999996</v>
       </c>
       <c r="R25">
-        <f t="shared" si="1"/>
-        <v>2.4200000000000004</v>
+        <f t="shared" si="2"/>
+        <v>3.92</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3710,7 +3716,7 @@
         <v>399.30000000000007</v>
       </c>
       <c r="X25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>399.30000000000007</v>
       </c>
       <c r="Y25">
@@ -3720,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB25">
@@ -3744,12 +3750,12 @@
         <v>32</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
-        <v>7.2600000000000016</v>
+        <f t="shared" si="8"/>
+        <v>11.759999999999998</v>
       </c>
       <c r="E26">
-        <f t="shared" si="5"/>
-        <v>7.2600000000000016</v>
+        <f t="shared" si="1"/>
+        <v>1.1759999999999999</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>134</v>
@@ -3785,12 +3791,12 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
-        <v>36.300000000000004</v>
+        <f t="shared" si="9"/>
+        <v>58.8</v>
       </c>
       <c r="R26">
-        <f t="shared" si="1"/>
-        <v>3.6300000000000008</v>
+        <f t="shared" si="2"/>
+        <v>5.88</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3809,7 +3815,7 @@
         <v>363.00000000000006</v>
       </c>
       <c r="X26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>363.00000000000006</v>
       </c>
       <c r="Y26">
@@ -3819,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB26">
@@ -3843,12 +3849,12 @@
         <v>32</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
-        <v>7.2600000000000016</v>
+        <f t="shared" si="8"/>
+        <v>11.759999999999998</v>
       </c>
       <c r="E27">
-        <f t="shared" si="5"/>
-        <v>7.2600000000000016</v>
+        <f t="shared" si="1"/>
+        <v>1.1759999999999999</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>135</v>
@@ -3884,12 +3890,12 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="9"/>
+        <v>78.399999999999991</v>
       </c>
       <c r="R27">
-        <f t="shared" si="1"/>
-        <v>4.8400000000000007</v>
+        <f t="shared" si="2"/>
+        <v>7.84</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3908,7 +3914,7 @@
         <v>484.00000000000011</v>
       </c>
       <c r="X27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>484.00000000000011</v>
       </c>
       <c r="Y27">
@@ -3918,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="AA27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB27">
@@ -3942,12 +3948,12 @@
         <v>32</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
-        <v>7.2600000000000016</v>
+        <f t="shared" si="8"/>
+        <v>11.759999999999998</v>
       </c>
       <c r="E28">
-        <f t="shared" si="5"/>
-        <v>7.2600000000000016</v>
+        <f t="shared" si="1"/>
+        <v>1.1759999999999999</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>136</v>
@@ -3983,12 +3989,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="6"/>
-        <v>48.400000000000006</v>
+        <f t="shared" si="9"/>
+        <v>78.399999999999991</v>
       </c>
       <c r="R28">
-        <f t="shared" si="1"/>
-        <v>4.8400000000000007</v>
+        <f t="shared" si="2"/>
+        <v>7.84</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -4007,7 +4013,7 @@
         <v>1210</v>
       </c>
       <c r="X28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1210</v>
       </c>
       <c r="Y28">
@@ -4017,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="AA28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB28">
@@ -4041,12 +4047,12 @@
         <v>32</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
-        <v>12.100000000000001</v>
+        <f t="shared" si="8"/>
+        <v>19.599999999999998</v>
       </c>
       <c r="E29">
-        <f t="shared" si="5"/>
-        <v>12.100000000000001</v>
+        <f t="shared" si="1"/>
+        <v>1.96</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>137</v>
@@ -4082,12 +4088,12 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="6"/>
-        <v>60.500000000000014</v>
+        <f t="shared" si="9"/>
+        <v>98</v>
       </c>
       <c r="R29">
-        <f t="shared" si="1"/>
-        <v>6.0500000000000016</v>
+        <f t="shared" si="2"/>
+        <v>9.8000000000000007</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4106,7 +4112,7 @@
         <v>726.00000000000011</v>
       </c>
       <c r="X29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>726.00000000000011</v>
       </c>
       <c r="Y29">
@@ -4116,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="AA29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB29">
@@ -4140,12 +4146,12 @@
         <v>32</v>
       </c>
       <c r="D30" s="4">
-        <f>D12*1.2</f>
-        <v>1.2</v>
+        <f>D12*2</f>
+        <v>2</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="5"/>
-        <v>1.2</v>
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>138</v>
@@ -4181,12 +4187,12 @@
         <v>0</v>
       </c>
       <c r="Q30" s="4">
-        <f>Q12*1.2</f>
-        <v>14.399999999999999</v>
+        <f>Q12*2</f>
+        <v>24</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="1"/>
-        <v>1.44</v>
+        <f t="shared" si="2"/>
+        <v>2.4000000000000004</v>
       </c>
       <c r="S30" s="4">
         <v>0</v>
@@ -4205,7 +4211,7 @@
         <v>504</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>504</v>
       </c>
       <c r="Y30" s="4">
@@ -4215,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB30" s="4">
@@ -4239,12 +4245,12 @@
         <v>32</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D35" si="8">D13*1.2</f>
-        <v>4.8</v>
+        <f t="shared" ref="D31:D35" si="10">D13*2</f>
+        <v>8</v>
       </c>
       <c r="E31">
-        <f t="shared" si="5"/>
-        <v>4.8</v>
+        <f t="shared" si="1"/>
+        <v>0.8</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>139</v>
@@ -4280,12 +4286,12 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <f t="shared" ref="Q31:Q35" si="9">Q13*1.2</f>
-        <v>24</v>
+        <f t="shared" ref="Q31:Q35" si="11">Q13*2</f>
+        <v>40</v>
       </c>
       <c r="R31">
-        <f t="shared" si="1"/>
-        <v>2.4000000000000004</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -4300,11 +4306,11 @@
         <v>0</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:W35" si="10">W13*1.2</f>
+        <f t="shared" ref="W31:W35" si="12">W13*1.2</f>
         <v>396</v>
       </c>
       <c r="X31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>396</v>
       </c>
       <c r="Y31">
@@ -4314,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="AA31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB31">
@@ -4338,12 +4344,12 @@
         <v>32</v>
       </c>
       <c r="D32">
-        <f t="shared" si="8"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="E32">
-        <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>140</v>
@@ -4379,12 +4385,12 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="9"/>
-        <v>36</v>
+        <f t="shared" si="11"/>
+        <v>60</v>
       </c>
       <c r="R32">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4399,11 +4405,11 @@
         <v>0</v>
       </c>
       <c r="W32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>360</v>
       </c>
       <c r="X32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="Y32">
@@ -4413,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB32">
@@ -4437,12 +4443,12 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <f t="shared" si="8"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="E33">
-        <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>141</v>
@@ -4478,12 +4484,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="9"/>
-        <v>48</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="R33">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -4498,11 +4504,11 @@
         <v>0</v>
       </c>
       <c r="W33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>480</v>
       </c>
       <c r="X33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>480</v>
       </c>
       <c r="Y33">
@@ -4512,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB33">
@@ -4536,12 +4542,12 @@
         <v>32</v>
       </c>
       <c r="D34">
-        <f t="shared" si="8"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="E34">
-        <f t="shared" si="5"/>
-        <v>7.1999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>142</v>
@@ -4577,12 +4583,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="9"/>
-        <v>48</v>
+        <f t="shared" si="11"/>
+        <v>80</v>
       </c>
       <c r="R34">
-        <f t="shared" si="1"/>
-        <v>4.8000000000000007</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4597,11 +4603,11 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1200</v>
       </c>
       <c r="X34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1200</v>
       </c>
       <c r="Y34">
@@ -4611,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB34">
@@ -4635,12 +4641,12 @@
         <v>32</v>
       </c>
       <c r="D35">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f t="shared" si="10"/>
+        <v>20</v>
       </c>
       <c r="E35">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>143</v>
@@ -4676,12 +4682,12 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="9"/>
-        <v>60</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="R35">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4696,11 +4702,11 @@
         <v>0</v>
       </c>
       <c r="W35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>720</v>
       </c>
       <c r="X35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>720</v>
       </c>
       <c r="Y35">
@@ -4710,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="AA35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201385536</v>
       </c>
       <c r="AB35">
@@ -4734,11 +4740,12 @@
         <v>32</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <f>D35*1.5</f>
+        <v>30</v>
       </c>
       <c r="E36">
-        <f t="shared" si="5"/>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>144</v>
@@ -4774,12 +4781,12 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <f>Q35*1.2</f>
-        <v>72</v>
+        <f>Q35*1.5</f>
+        <v>150</v>
       </c>
       <c r="R36">
-        <f t="shared" si="1"/>
-        <v>7.2</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4797,7 +4804,7 @@
         <v>3000</v>
       </c>
       <c r="X36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3000</v>
       </c>
       <c r="Y36">
@@ -4807,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
       <c r="AB36">

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24345" windowHeight="11805"/>
+    <workbookView windowHeight="22020"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -40,7 +40,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>(boss,enemy,summoner,followHero,minio)</t>
@@ -53,9 +52,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>普通：</t>
@@ -64,9 +61,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10000
 </t>
@@ -75,9 +71,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>穿刺：</t>
@@ -86,9 +80,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10001
 </t>
@@ -97,9 +90,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>魔法：</t>
@@ -108,9 +99,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">10002
 </t>
@@ -119,9 +109,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>英雄：</t>
@@ -130,9 +118,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>10003</t>
         </r>
@@ -144,9 +131,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>轻甲：</t>
@@ -155,9 +140,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">20000
 </t>
@@ -166,9 +150,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>中甲：</t>
@@ -177,9 +159,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">20001
 </t>
@@ -188,9 +169,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>重甲：</t>
@@ -199,9 +178,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">20002
 </t>
@@ -210,9 +188,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>城甲：</t>
@@ -221,9 +197,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">20003
 </t>
@@ -232,9 +207,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>英雄：</t>
@@ -243,9 +216,8 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>20004</t>
         </r>
@@ -257,9 +229,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>默认近战：0
@@ -274,29 +244,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>cehua_1</t>
+  </si>
+  <si>
     <t>main_attr</t>
   </si>
   <si>
+    <t>attack_phy_float</t>
+  </si>
+  <si>
+    <t>attack_phy_float_grow</t>
+  </si>
+  <si>
+    <t>lua_name</t>
+  </si>
+  <si>
+    <t>unit_type</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>attack_type</t>
+  </si>
+  <si>
     <t>armor_type</t>
   </si>
   <si>
-    <t>attack_phy_float</t>
-  </si>
-  <si>
-    <t>attack_phy_float_grow</t>
-  </si>
-  <si>
-    <t>lua_name</t>
-  </si>
-  <si>
-    <t>unit_type</t>
-  </si>
-  <si>
     <t>strength</t>
   </si>
   <si>
@@ -321,6 +300,9 @@
     <t>attack_phy_grow</t>
   </si>
   <si>
+    <t>defense_phy</t>
+  </si>
+  <si>
     <t>defense_phy_grow</t>
   </si>
   <si>
@@ -346,6 +328,9 @@
   </si>
   <si>
     <t>attack_interval</t>
+  </si>
+  <si>
+    <t>drop_items_tuple</t>
   </si>
   <si>
     <t>reward_exp</t>
@@ -356,7 +341,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>角色物编</t>
@@ -366,7 +350,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>id</t>
@@ -379,18 +362,24 @@
     <t>主属性</t>
   </si>
   <si>
+    <t>浮动攻击力</t>
+  </si>
+  <si>
+    <t>lua名称</t>
+  </si>
+  <si>
+    <t>单位类型</t>
+  </si>
+  <si>
+    <t>游戏名称</t>
+  </si>
+  <si>
+    <t>攻击类型</t>
+  </si>
+  <si>
     <t>防御类型</t>
   </si>
   <si>
-    <t>浮动攻击力</t>
-  </si>
-  <si>
-    <t>lua名称</t>
-  </si>
-  <si>
-    <t>单位类型</t>
-  </si>
-  <si>
     <t>力量</t>
   </si>
   <si>
@@ -442,6 +431,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>cehua</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -451,16 +443,13 @@
     <t>float[]</t>
   </si>
   <si>
-    <t>minio</t>
-  </si>
-  <si>
-    <t>食尸鬼</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>蜘蛛</t>
+    <t>召唤师</t>
+  </si>
+  <si>
+    <t>zhs</t>
+  </si>
+  <si>
+    <t>summoner</t>
   </si>
   <si>
     <t>剑圣</t>
@@ -478,75 +467,17 @@
     <t>sqzw</t>
   </si>
   <si>
-    <t>暗影猎手</t>
-  </si>
-  <si>
-    <t>ayls</t>
-  </si>
-  <si>
-    <t>最小攻击</t>
-  </si>
-  <si>
-    <t>物攻+物攻成长*（lv-1）</t>
-  </si>
-  <si>
-    <t>最大攻击</t>
-  </si>
-  <si>
-    <t>最小攻击+浮动攻击+浮动攻击成长*（lv-1）</t>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cehua_1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop_items_tuple</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>attack_type</t>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>summoner</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼金术士</t>
+    <t>恶魔猎手</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>e</t>
     </r>
     <r>
@@ -554,16 +485,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>mls</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗影猎手</t>
+  </si>
+  <si>
+    <t>ayls</t>
+  </si>
+  <si>
+    <t>黑暗游侠</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>h</t>
     </r>
     <r>
@@ -571,16 +516,49 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>ayx</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼金术士</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>jss</t>
+    </r>
+  </si>
+  <si>
+    <t>牛头人酋长</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>n</t>
     </r>
     <r>
@@ -588,266 +566,207 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>trqz</t>
     </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>jss</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤师</t>
-  </si>
-  <si>
-    <t>恶魔猎手</t>
-  </si>
-  <si>
-    <t>黑暗游侠</t>
-  </si>
-  <si>
-    <t>牛头人酋长</t>
-  </si>
-  <si>
-    <t>cehua</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>步兵</t>
   </si>
   <si>
     <t>bb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>步兵</t>
+  </si>
+  <si>
+    <t>minio</t>
   </si>
   <si>
     <t>火枪手</t>
   </si>
   <si>
+    <t>hqs</t>
+  </si>
+  <si>
     <t>女巫</t>
   </si>
   <si>
+    <t>nw</t>
+  </si>
+  <si>
     <t>龙骑</t>
   </si>
   <si>
+    <t>lqs</t>
+  </si>
+  <si>
+    <t>龙骑士</t>
+  </si>
+  <si>
     <t>骑士</t>
   </si>
   <si>
+    <t>qs</t>
+  </si>
+  <si>
     <t>狮鹫</t>
   </si>
   <si>
+    <t>sj</t>
+  </si>
+  <si>
+    <t>兽人步兵</t>
+  </si>
+  <si>
+    <t>srbb</t>
+  </si>
+  <si>
+    <t>巨魔</t>
+  </si>
+  <si>
+    <t>jm</t>
+  </si>
+  <si>
+    <t>萨满</t>
+  </si>
+  <si>
+    <t>sm</t>
+  </si>
+  <si>
+    <t>飞龙</t>
+  </si>
+  <si>
+    <t>szfl</t>
+  </si>
+  <si>
+    <t>双足飞龙</t>
+  </si>
+  <si>
+    <t>牛头人</t>
+  </si>
+  <si>
+    <t>ntr</t>
+  </si>
+  <si>
+    <t>绿龙</t>
+  </si>
+  <si>
+    <t>ll</t>
+  </si>
+  <si>
+    <t>女猎</t>
+  </si>
+  <si>
+    <t>nls</t>
+  </si>
+  <si>
+    <t>女猎手</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>gjs</t>
+  </si>
+  <si>
+    <t>风德</t>
+  </si>
+  <si>
+    <t>mqdly</t>
+  </si>
+  <si>
+    <t>猛禽德鲁伊</t>
+  </si>
+  <si>
+    <t>精灵龙</t>
+  </si>
+  <si>
+    <t>jll</t>
+  </si>
+  <si>
+    <t>山岭</t>
+  </si>
+  <si>
+    <t>sljr</t>
+  </si>
+  <si>
+    <t>山岭巨人</t>
+  </si>
+  <si>
+    <t>奇美拉</t>
+  </si>
+  <si>
+    <t>qml</t>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+  </si>
+  <si>
+    <t>ssg</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>zz</t>
+  </si>
+  <si>
+    <t>死灵法师</t>
+  </si>
+  <si>
+    <t>slfs</t>
+  </si>
+  <si>
+    <t>石像鬼</t>
+  </si>
+  <si>
+    <t>sxg</t>
+  </si>
+  <si>
+    <t>憎恶</t>
+  </si>
+  <si>
+    <t>zw</t>
+  </si>
+  <si>
+    <t>冰霜巨龙</t>
+  </si>
+  <si>
+    <t>bsjl</t>
+  </si>
+  <si>
     <t>地狱火</t>
   </si>
   <si>
-    <t>兽人步兵</t>
-  </si>
-  <si>
-    <t>巨魔</t>
-  </si>
-  <si>
-    <t>萨满</t>
-  </si>
-  <si>
-    <t>飞龙</t>
-  </si>
-  <si>
-    <t>牛头人</t>
-  </si>
-  <si>
-    <t>绿龙</t>
-  </si>
-  <si>
-    <t>女猎</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>风德</t>
-  </si>
-  <si>
-    <t>精灵龙</t>
-  </si>
-  <si>
-    <t>山岭</t>
-  </si>
-  <si>
-    <t>奇美拉</t>
-  </si>
-  <si>
-    <t>死灵法师</t>
-  </si>
-  <si>
-    <t>石像鬼</t>
-  </si>
-  <si>
-    <t>憎恶</t>
-  </si>
-  <si>
-    <t>冰霜巨龙</t>
-  </si>
-  <si>
-    <t>步兵</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙骑士</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>双足飞龙</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛头人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>女猎手</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛禽德鲁伊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>山岭巨人</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hqs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>lqs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>qs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sj</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>srbb</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>szfl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ntr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ll</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>nls</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>gjs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>mqdly</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>jll</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sljr</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>qml</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ssg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zz</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>slfs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>sxg</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bsjl</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>dyh</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>defense_phy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>食尸鬼</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>死灵法师</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小攻击</t>
+  </si>
+  <si>
+    <t>物攻+物攻成长*（lv-1）</t>
+  </si>
+  <si>
+    <t>最大攻击</t>
+  </si>
+  <si>
+    <t>最小攻击+浮动攻击+浮动攻击成长*（lv-1）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,7 +779,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -868,59 +786,190 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -933,8 +982,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -942,9 +1177,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -955,92 +1432,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1302,433 +1785,433 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R39" sqref="R39"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="16.1296296296296" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="17.1296296296296" customWidth="1"/>
     <col min="5" max="5" width="23.75" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" customWidth="1"/>
-    <col min="12" max="12" width="14.875" customWidth="1"/>
-    <col min="13" max="13" width="8.375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="11.6296296296296" customWidth="1"/>
+    <col min="11" max="11" width="9.37962962962963" customWidth="1"/>
+    <col min="12" max="12" width="14.8796296296296" customWidth="1"/>
+    <col min="13" max="13" width="8.37962962962963" customWidth="1"/>
     <col min="14" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="19.375" customWidth="1"/>
+    <col min="16" max="16" width="19.3796296296296" customWidth="1"/>
     <col min="17" max="17" width="11.5" customWidth="1"/>
-    <col min="18" max="18" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="17.1296296296296" customWidth="1"/>
     <col min="19" max="20" width="18.25" customWidth="1"/>
-    <col min="21" max="21" width="8.875" customWidth="1"/>
-    <col min="22" max="22" width="12.625" customWidth="1"/>
-    <col min="23" max="23" width="10.875" customWidth="1"/>
-    <col min="24" max="24" width="12.625" customWidth="1"/>
-    <col min="25" max="25" width="10.375" customWidth="1"/>
-    <col min="26" max="26" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="8.87962962962963" customWidth="1"/>
+    <col min="22" max="22" width="12.6296296296296" customWidth="1"/>
+    <col min="23" max="23" width="10.8796296296296" customWidth="1"/>
+    <col min="24" max="24" width="12.6296296296296" customWidth="1"/>
+    <col min="25" max="25" width="10.3796296296296" customWidth="1"/>
+    <col min="26" max="26" width="17.1296296296296" customWidth="1"/>
     <col min="27" max="27" width="11.5" customWidth="1"/>
-    <col min="28" max="28" width="17.125" customWidth="1"/>
-    <col min="29" max="29" width="27.125" customWidth="1"/>
+    <col min="28" max="28" width="17.1296296296296" customWidth="1"/>
+    <col min="29" max="29" width="27.1296296296296" customWidth="1"/>
     <col min="30" max="30" width="11.5" customWidth="1"/>
     <col min="31" max="202" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="1:30">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>68</v>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:30">
+      <c r="A4" s="9">
+        <v>134254942</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2">
+        <v>6</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="10">
+        <v>10003</v>
+      </c>
+      <c r="J4" s="10">
+        <v>20004</v>
+      </c>
+      <c r="K4" s="2">
+        <v>10</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>10</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>30</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>400</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>300</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AA13" si="0">IF(Z4=0,201347498,IF(Z4=1,201385536,""))</f>
+        <v>201385536</v>
+      </c>
+      <c r="AB4" s="2">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>24</v>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15">
-      <c r="A2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
+    <row r="5" spans="1:30">
+      <c r="A5" s="11">
+        <v>134243024</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
         <v>41</v>
-      </c>
-      <c r="X2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15">
-      <c r="A3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="4" customFormat="1" ht="15">
-      <c r="A4" s="11">
-        <v>134254942</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I4" s="12">
-        <v>10003</v>
-      </c>
-      <c r="J4" s="12">
-        <v>20004</v>
-      </c>
-      <c r="K4" s="4">
-        <v>10</v>
-      </c>
-      <c r="L4" s="4">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4">
-        <v>10</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
-        <v>10</v>
-      </c>
-      <c r="P4" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>30</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>400</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>300</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="4">
-        <f t="shared" ref="AA4:AA12" si="0">IF(Z4=0,201347498,IF(Z4=1,201385536,""))</f>
-        <v>201385536</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15">
-      <c r="A5" s="8">
-        <v>134243024</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -1737,18 +2220,18 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="10">
+        <v>65</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="12">
         <v>10003</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>20004</v>
       </c>
       <c r="K5">
@@ -1797,11 +2280,11 @@
         <v>300</v>
       </c>
       <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="str">
         <f t="shared" si="0"/>
-        <v>201347498</v>
+        <v/>
       </c>
       <c r="AB5">
         <v>1.77</v>
@@ -1813,15 +2296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15">
-      <c r="A6" s="8">
+    <row r="6" spans="1:30">
+      <c r="A6" s="11">
         <v>134242228</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -1830,18 +2313,18 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="10">
+        <v>65</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="12">
         <v>10003</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="12">
         <v>20004</v>
       </c>
       <c r="K6">
@@ -1890,14 +2373,14 @@
         <v>300</v>
       </c>
       <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="str">
         <f t="shared" si="0"/>
-        <v>201347498</v>
+        <v/>
       </c>
       <c r="AB6">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1911,10 +2394,10 @@
         <v>134224243</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -1922,19 +2405,19 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>80</v>
+      <c r="F7" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="10">
+        <v>65</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="12">
         <v>10003</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="12">
         <v>20004</v>
       </c>
       <c r="K7">
@@ -1983,11 +2466,11 @@
         <v>300</v>
       </c>
       <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="str">
         <f t="shared" si="0"/>
-        <v>201347498</v>
+        <v/>
       </c>
       <c r="AB7">
         <v>1.7</v>
@@ -1999,15 +2482,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="15">
-      <c r="A8" s="8">
+    <row r="8" spans="1:30">
+      <c r="A8" s="11">
         <v>134260903</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -2016,18 +2499,18 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" s="10">
+        <v>65</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="12">
         <v>10003</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="12">
         <v>20004</v>
       </c>
       <c r="K8">
@@ -2083,7 +2566,7 @@
         <v>201385536</v>
       </c>
       <c r="AB8">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="AC8">
         <v>0</v>
@@ -2097,10 +2580,10 @@
         <v>134250976</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -2108,19 +2591,19 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>81</v>
+      <c r="F9" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="10">
+        <v>65</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="12">
         <v>10003</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="12">
         <v>20004</v>
       </c>
       <c r="K9">
@@ -2190,10 +2673,10 @@
         <v>134233666</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2201,19 +2684,19 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>83</v>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="10">
+        <v>65</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="12">
         <v>10003</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="12">
         <v>20004</v>
       </c>
       <c r="K10">
@@ -2283,10 +2766,10 @@
         <v>134280846</v>
       </c>
       <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -2294,19 +2777,19 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>82</v>
+      <c r="F11" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="10">
+        <v>65</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I11" s="12">
         <v>10003</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="12">
         <v>20004</v>
       </c>
       <c r="K11">
@@ -2371,111 +2854,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" s="4" customFormat="1" ht="15">
-      <c r="A12" s="11">
+    <row r="12" s="2" customFormat="1" spans="1:30">
+      <c r="A12" s="9">
         <v>134224396</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4">
+        <v>78</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <f>D12*0.1</f>
         <v>0.1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="12">
+        <v>79</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="10">
         <v>10000</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="10">
         <v>20002</v>
       </c>
-      <c r="K12" s="4">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
         <v>12</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="2">
         <f>Q12*0.1</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
-        <v>0</v>
-      </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="4">
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
         <v>420</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X12" s="2">
         <f>W12</f>
         <v>420</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y12" s="2">
         <v>300</v>
       </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="4">
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
         <f t="shared" si="0"/>
         <v>201347498</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB12" s="2">
         <v>1.5</v>
       </c>
-      <c r="AC12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="15">
-      <c r="A13" s="8">
+    <row r="13" spans="1:30">
+      <c r="A13" s="11">
         <v>134279938</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>92</v>
+      <c r="B13" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>4</v>
@@ -2484,19 +2967,19 @@
         <f t="shared" ref="E13:E36" si="1">D13*0.1</f>
         <v>0.4</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="F13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="12">
         <v>10001</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="12">
         <v>20001</v>
       </c>
       <c r="K13">
@@ -2550,7 +3033,7 @@
         <v>1</v>
       </c>
       <c r="AA13">
-        <f>IF(Z13=0,201347498,IF(Z13=1,201385536,""))</f>
+        <f t="shared" si="0"/>
         <v>201385536</v>
       </c>
       <c r="AB13">
@@ -2563,36 +3046,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="15">
-      <c r="A14" s="8">
+    <row r="14" spans="1:30">
+      <c r="A14" s="11">
         <v>134275911</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>93</v>
+      <c r="B14" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D14">
         <v>6</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="12">
         <v>10002</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="12">
         <v>20000</v>
       </c>
       <c r="K14">
@@ -2659,36 +3142,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="15">
-      <c r="A15" s="8">
+    <row r="15" spans="1:30">
+      <c r="A15" s="11">
         <v>134222625</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>94</v>
+      <c r="B15" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>6</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="I15" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="12">
         <v>10001</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="12">
         <v>20000</v>
       </c>
       <c r="K15">
@@ -2755,36 +3238,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="15">
-      <c r="A16" s="8">
+    <row r="16" spans="1:30">
+      <c r="A16" s="11">
         <v>134244200</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>95</v>
+      <c r="B16" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>6</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="12">
         <v>10000</v>
       </c>
-      <c r="J16" s="10">
+      <c r="J16" s="12">
         <v>20002</v>
       </c>
       <c r="K16">
@@ -2851,15 +3334,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="15">
-      <c r="A17" s="8">
+    <row r="17" spans="1:30">
+      <c r="A17" s="11">
         <v>134228489</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>96</v>
+      <c r="B17" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -2868,19 +3351,19 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="10">
+      <c r="F17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="12">
         <v>10002</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="12">
         <v>20001</v>
       </c>
       <c r="K17">
@@ -2947,136 +3430,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" s="4" customFormat="1" ht="15">
-      <c r="A18" s="11">
+    <row r="18" s="2" customFormat="1" spans="1:30">
+      <c r="A18" s="9">
         <v>134238766</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="4">
+        <v>92</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2">
         <f>D12*1.4</f>
         <v>1.4</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>0.13999999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="12">
+        <v>93</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I18" s="10">
         <v>10000</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="10">
         <v>20002</v>
       </c>
-      <c r="K18" s="4">
-        <v>0</v>
-      </c>
-      <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
-        <v>0</v>
-      </c>
-      <c r="N18" s="4">
-        <v>0</v>
-      </c>
-      <c r="O18" s="4">
-        <v>0</v>
-      </c>
-      <c r="P18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
         <f>Q12*1.4</f>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="R18" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="R18" s="2">
         <f t="shared" si="2"/>
-        <v>1.6799999999999997</v>
-      </c>
-      <c r="S18" s="4">
-        <v>0</v>
-      </c>
-      <c r="T18" s="4">
-        <v>0</v>
-      </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="4">
-        <v>0</v>
-      </c>
-      <c r="W18" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="S18" s="2">
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
         <f>W12*1.1</f>
-        <v>462.00000000000006</v>
-      </c>
-      <c r="X18" s="4">
+        <v>462</v>
+      </c>
+      <c r="X18" s="2">
         <f t="shared" si="3"/>
-        <v>462.00000000000006</v>
-      </c>
-      <c r="Y18" s="4">
+        <v>462</v>
+      </c>
+      <c r="Y18" s="2">
         <v>300</v>
       </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="4">
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
         <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
-      <c r="AB18" s="4">
+      <c r="AB18" s="2">
         <v>1.5</v>
       </c>
-      <c r="AC18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="4">
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="15">
-      <c r="A19" s="8">
+    <row r="19" spans="1:30">
+      <c r="A19" s="11">
         <v>134255712</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>99</v>
+      <c r="B19" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:D23" si="5">D13*1.4</f>
+        <f t="shared" ref="D19:D24" si="5">D13*1.4</f>
         <v>5.6</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>0.55999999999999994</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="10">
+        <v>0.56</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19" s="12">
         <v>10001</v>
       </c>
-      <c r="J19" s="10">
+      <c r="J19" s="12">
         <v>20001</v>
       </c>
       <c r="K19">
@@ -3098,12 +3581,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <f t="shared" ref="Q19:Q23" si="6">Q13*1.4</f>
+        <f t="shared" ref="Q19:Q24" si="6">Q13*1.4</f>
         <v>28</v>
       </c>
       <c r="R19">
         <f t="shared" si="2"/>
-        <v>2.8000000000000003</v>
+        <v>2.8</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -3119,11 +3602,11 @@
       </c>
       <c r="W19">
         <f t="shared" ref="W19:W29" si="7">W13*1.1</f>
-        <v>363.00000000000006</v>
+        <v>363</v>
       </c>
       <c r="X19">
         <f t="shared" si="3"/>
-        <v>363.00000000000006</v>
+        <v>363</v>
       </c>
       <c r="Y19">
         <v>300</v>
@@ -3145,37 +3628,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15">
-      <c r="A20" s="8">
+    <row r="20" spans="1:30">
+      <c r="A20" s="11">
         <v>134264703</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>100</v>
+      <c r="B20" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D20">
         <f t="shared" si="5"/>
-        <v>8.3999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="12">
         <v>10002</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="12">
         <v>20000</v>
       </c>
       <c r="K20">
@@ -3244,37 +3727,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15">
-      <c r="A21" s="8">
+    <row r="21" spans="1:30">
+      <c r="A21" s="11">
         <v>134232217</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>101</v>
+      <c r="B21" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D21">
         <f t="shared" si="5"/>
-        <v>8.3999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I21" s="12">
         <v>10001</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="12">
         <v>20000</v>
       </c>
       <c r="K21">
@@ -3301,7 +3784,7 @@
       </c>
       <c r="R21">
         <f t="shared" si="2"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3317,11 +3800,11 @@
       </c>
       <c r="W21">
         <f t="shared" si="7"/>
-        <v>440.00000000000006</v>
+        <v>440</v>
       </c>
       <c r="X21">
         <f t="shared" si="3"/>
-        <v>440.00000000000006</v>
+        <v>440</v>
       </c>
       <c r="Y21">
         <v>300</v>
@@ -3343,37 +3826,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15">
-      <c r="A22" s="8">
+    <row r="22" spans="1:30">
+      <c r="A22" s="11">
         <v>134219177</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>102</v>
+      <c r="B22" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D22">
         <f t="shared" si="5"/>
-        <v>8.3999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>0.83999999999999986</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I22" s="12">
         <v>10000</v>
       </c>
-      <c r="J22" s="10">
+      <c r="J22" s="12">
         <v>20002</v>
       </c>
       <c r="K22">
@@ -3400,7 +3883,7 @@
       </c>
       <c r="R22">
         <f t="shared" si="2"/>
-        <v>5.6000000000000005</v>
+        <v>5.6</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -3442,15 +3925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15">
-      <c r="A23" s="8">
+    <row r="23" spans="1:30">
+      <c r="A23" s="11">
         <v>134269180</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>103</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D23">
         <f t="shared" si="5"/>
@@ -3458,21 +3941,21 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" s="10" t="s">
+        <v>1.4</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="12">
         <v>10002</v>
       </c>
-      <c r="J23" s="10">
+      <c r="J23" s="12">
         <v>20001</v>
       </c>
       <c r="K23">
@@ -3541,136 +4024,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" s="4" customFormat="1" ht="15">
-      <c r="A24" s="11">
+    <row r="24" s="2" customFormat="1" spans="1:30">
+      <c r="A24" s="9">
         <v>134264949</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="4">
-        <f>D18*1.4</f>
-        <v>1.9599999999999997</v>
-      </c>
-      <c r="E24" s="4">
+        <v>105</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="5"/>
+        <v>1.96</v>
+      </c>
+      <c r="E24" s="2">
         <f t="shared" si="1"/>
-        <v>0.19599999999999998</v>
+        <v>0.196</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="12">
+        <v>106</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="10">
         <v>10000</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="10">
         <v>20002</v>
       </c>
-      <c r="K24" s="4">
-        <v>0</v>
-      </c>
-      <c r="L24" s="4">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
-        <v>0</v>
-      </c>
-      <c r="N24" s="4">
-        <v>0</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
-      </c>
-      <c r="P24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="4">
-        <f>Q18*1.4</f>
-        <v>23.519999999999996</v>
-      </c>
-      <c r="R24" s="4">
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" si="6"/>
+        <v>23.52</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" si="2"/>
-        <v>2.3519999999999999</v>
-      </c>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
-        <v>0</v>
-      </c>
-      <c r="U24" s="4">
-        <v>0</v>
-      </c>
-      <c r="V24" s="4">
-        <v>0</v>
-      </c>
-      <c r="W24" s="4">
+        <v>2.352</v>
+      </c>
+      <c r="S24" s="2">
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
+        <v>0</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2">
+        <v>0</v>
+      </c>
+      <c r="W24" s="2">
         <f t="shared" si="7"/>
-        <v>508.2000000000001</v>
-      </c>
-      <c r="X24" s="4">
+        <v>508.2</v>
+      </c>
+      <c r="X24" s="2">
         <f t="shared" si="3"/>
-        <v>508.2000000000001</v>
-      </c>
-      <c r="Y24" s="4">
+        <v>508.2</v>
+      </c>
+      <c r="Y24" s="2">
         <v>300</v>
       </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="4">
+      <c r="Z24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="2">
         <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
-      <c r="AB24" s="4">
+      <c r="AB24" s="2">
         <v>1.5</v>
       </c>
-      <c r="AC24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="4">
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15">
-      <c r="A25" s="8">
+    <row r="25" spans="1:30">
+      <c r="A25" s="11">
         <v>134221729</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>105</v>
+      <c r="B25" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D25">
         <f t="shared" ref="D25:D29" si="8">D19*1.4</f>
-        <v>7.839999999999999</v>
+        <v>7.84</v>
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>0.78399999999999992</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="10">
+        <v>0.784</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="12">
         <v>10001</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="12">
         <v>20001</v>
       </c>
       <c r="K25">
@@ -3693,7 +4176,7 @@
       </c>
       <c r="Q25">
         <f t="shared" ref="Q25:Q29" si="9">Q19*1.4</f>
-        <v>39.199999999999996</v>
+        <v>39.2</v>
       </c>
       <c r="R25">
         <f t="shared" si="2"/>
@@ -3713,11 +4196,11 @@
       </c>
       <c r="W25">
         <f t="shared" si="7"/>
-        <v>399.30000000000007</v>
+        <v>399.3</v>
       </c>
       <c r="X25">
         <f t="shared" si="3"/>
-        <v>399.30000000000007</v>
+        <v>399.3</v>
       </c>
       <c r="Y25">
         <v>300</v>
@@ -3739,37 +4222,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15">
-      <c r="A26" s="8">
+    <row r="26" spans="1:30">
+      <c r="A26" s="11">
         <v>134227758</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>106</v>
+      <c r="B26" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D26">
         <f t="shared" si="8"/>
-        <v>11.759999999999998</v>
+        <v>11.76</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I26" s="10">
+        <v>1.176</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="12">
         <v>10002</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="12">
         <v>20000</v>
       </c>
       <c r="K26">
@@ -3812,11 +4295,11 @@
       </c>
       <c r="W26">
         <f t="shared" si="7"/>
-        <v>363.00000000000006</v>
+        <v>363</v>
       </c>
       <c r="X26">
         <f t="shared" si="3"/>
-        <v>363.00000000000006</v>
+        <v>363</v>
       </c>
       <c r="Y26">
         <v>300</v>
@@ -3838,37 +4321,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="15">
-      <c r="A27" s="8">
+    <row r="27" spans="1:30">
+      <c r="A27" s="11">
         <v>134256423</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>107</v>
+      <c r="B27" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D27">
         <f t="shared" si="8"/>
-        <v>11.759999999999998</v>
+        <v>11.76</v>
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="10">
+        <v>1.176</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="12">
         <v>10001</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="12">
         <v>20000</v>
       </c>
       <c r="K27">
@@ -3891,7 +4374,7 @@
       </c>
       <c r="Q27">
         <f t="shared" si="9"/>
-        <v>78.399999999999991</v>
+        <v>78.4</v>
       </c>
       <c r="R27">
         <f t="shared" si="2"/>
@@ -3911,11 +4394,11 @@
       </c>
       <c r="W27">
         <f t="shared" si="7"/>
-        <v>484.00000000000011</v>
+        <v>484</v>
       </c>
       <c r="X27">
         <f t="shared" si="3"/>
-        <v>484.00000000000011</v>
+        <v>484</v>
       </c>
       <c r="Y27">
         <v>300</v>
@@ -3937,37 +4420,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="15">
-      <c r="A28" s="8">
+    <row r="28" spans="1:30">
+      <c r="A28" s="11">
         <v>134224732</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>108</v>
+      <c r="B28" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <f t="shared" si="8"/>
-        <v>11.759999999999998</v>
+        <v>11.76</v>
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I28" s="10">
+        <v>1.176</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="12">
         <v>10000</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="12">
         <v>20002</v>
       </c>
       <c r="K28">
@@ -3990,7 +4473,7 @@
       </c>
       <c r="Q28">
         <f t="shared" si="9"/>
-        <v>78.399999999999991</v>
+        <v>78.4</v>
       </c>
       <c r="R28">
         <f t="shared" si="2"/>
@@ -4036,37 +4519,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="15">
-      <c r="A29" s="8">
+    <row r="29" spans="1:30">
+      <c r="A29" s="11">
         <v>134263920</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>109</v>
+      <c r="B29" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <f t="shared" si="8"/>
-        <v>19.599999999999998</v>
+        <v>19.6</v>
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
         <v>1.96</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" s="10">
+      <c r="F29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="12">
         <v>10002</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="12">
         <v>20001</v>
       </c>
       <c r="K29">
@@ -4093,7 +4576,7 @@
       </c>
       <c r="R29">
         <f t="shared" si="2"/>
-        <v>9.8000000000000007</v>
+        <v>9.8</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4109,11 +4592,11 @@
       </c>
       <c r="W29">
         <f t="shared" si="7"/>
-        <v>726.00000000000011</v>
+        <v>726</v>
       </c>
       <c r="X29">
         <f t="shared" si="3"/>
-        <v>726.00000000000011</v>
+        <v>726</v>
       </c>
       <c r="Y29">
         <v>300</v>
@@ -4135,114 +4618,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:30" s="4" customFormat="1" ht="15">
-      <c r="A30" s="11">
+    <row r="30" s="2" customFormat="1" spans="1:30">
+      <c r="A30" s="9">
         <v>134261362</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="4">
+        <v>120</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="2">
         <f>D12*2</f>
         <v>2</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I30" s="12">
+        <v>121</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="I30" s="10">
         <v>10000</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="10">
         <v>20002</v>
       </c>
-      <c r="K30" s="4">
-        <v>0</v>
-      </c>
-      <c r="L30" s="4">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <v>0</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
-      </c>
-      <c r="P30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="4">
+      <c r="K30" s="2">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
         <f>Q12*2</f>
         <v>24</v>
       </c>
-      <c r="R30" s="4">
+      <c r="R30" s="2">
         <f t="shared" si="2"/>
-        <v>2.4000000000000004</v>
-      </c>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
-      <c r="T30" s="4">
-        <v>0</v>
-      </c>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="4">
-        <v>0</v>
-      </c>
-      <c r="W30" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="S30" s="2">
+        <v>0</v>
+      </c>
+      <c r="T30" s="2">
+        <v>0</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0</v>
+      </c>
+      <c r="W30" s="2">
         <f>W12*1.2</f>
         <v>504</v>
       </c>
-      <c r="X30" s="4">
+      <c r="X30" s="2">
         <f t="shared" si="3"/>
         <v>504</v>
       </c>
-      <c r="Y30" s="4">
+      <c r="Y30" s="2">
         <v>300</v>
       </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="4">
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
         <f t="shared" si="4"/>
         <v>201347498</v>
       </c>
-      <c r="AB30" s="4">
+      <c r="AB30" s="2">
         <v>1.5</v>
       </c>
-      <c r="AC30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="4">
+      <c r="AC30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15">
-      <c r="A31" s="8">
+    <row r="31" spans="1:30">
+      <c r="A31" s="11">
         <v>134219259</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>55</v>
+      <c r="B31" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D31">
         <f t="shared" ref="D31:D35" si="10">D13*2</f>
@@ -4252,19 +4735,19 @@
         <f t="shared" si="1"/>
         <v>0.8</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="10">
+      <c r="F31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" s="12">
         <v>10001</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="12">
         <v>20001</v>
       </c>
       <c r="K31">
@@ -4333,15 +4816,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="15">
-      <c r="A32" s="8">
+    <row r="32" spans="1:30">
+      <c r="A32" s="11">
         <v>134222721</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>147</v>
+      <c r="B32" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D32">
         <f t="shared" si="10"/>
@@ -4349,21 +4832,21 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="12">
         <v>10002</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="12">
         <v>20000</v>
       </c>
       <c r="K32">
@@ -4432,15 +4915,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="15">
-      <c r="A33" s="8">
+    <row r="33" spans="1:30">
+      <c r="A33" s="11">
         <v>134267339</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>111</v>
+      <c r="B33" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D33">
         <f t="shared" si="10"/>
@@ -4448,21 +4931,21 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I33" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I33" s="12">
         <v>10001</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="12">
         <v>20000</v>
       </c>
       <c r="K33">
@@ -4531,15 +5014,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="15">
-      <c r="A34" s="8">
+    <row r="34" spans="1:30">
+      <c r="A34" s="11">
         <v>134244650</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>112</v>
+      <c r="B34" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D34">
         <f t="shared" si="10"/>
@@ -4547,21 +5030,21 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I34" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="12">
         <v>10000</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="12">
         <v>20002</v>
       </c>
       <c r="K34">
@@ -4630,15 +5113,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="15">
-      <c r="A35" s="8">
+    <row r="35" spans="1:30">
+      <c r="A35" s="11">
         <v>134230115</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>113</v>
+      <c r="B35" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D35">
         <f t="shared" si="10"/>
@@ -4648,19 +5131,19 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="I35" s="10">
+      <c r="F35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I35" s="12">
         <v>10002</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="12">
         <v>20001</v>
       </c>
       <c r="K35">
@@ -4729,15 +5212,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="15">
-      <c r="A36" s="8">
+    <row r="36" spans="1:30">
+      <c r="A36" s="11">
         <v>134242944</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>97</v>
+      <c r="B36" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D36">
         <f>D35*1.5</f>
@@ -4747,19 +5230,19 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="10">
+      <c r="F36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I36" s="12">
         <v>10002</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="12">
         <v>20002</v>
       </c>
       <c r="K36">
@@ -4828,40 +5311,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="duplicateValues" dxfId="6" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="28"/>
+  <conditionalFormatting sqref="F12:F1048576 F10 F7 F1:F5">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7 F9:F11">
-    <cfRule type="duplicateValues" dxfId="2" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F1048576 F10 F7 F1:F5">
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="41.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
@@ -4869,29 +5353,29 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A3:A4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -766,7 +766,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,13 +799,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -952,12 +945,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -966,6 +953,12 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1295,133 +1288,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1456,13 +1449,13 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,11 +1787,11 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z8" sqref="Z8"/>
+      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2282,9 +2275,8 @@
       <c r="Z5">
         <v>3</v>
       </c>
-      <c r="AA5" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AA5">
+        <v>134246955</v>
       </c>
       <c r="AB5">
         <v>1.77</v>
@@ -2375,9 +2367,8 @@
       <c r="Z6">
         <v>3</v>
       </c>
-      <c r="AA6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AA6">
+        <v>134270852</v>
       </c>
       <c r="AB6">
         <v>2.22</v>
@@ -2468,9 +2459,8 @@
       <c r="Z7">
         <v>3</v>
       </c>
-      <c r="AA7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+      <c r="AA7">
+        <v>134228686</v>
       </c>
       <c r="AB7">
         <v>1.7</v>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="22020"/>
+    <workbookView windowWidth="21348" windowHeight="16020"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="5" r:id="rId1"/>
@@ -945,6 +945,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -953,12 +959,6 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1787,11 +1787,11 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z31" sqref="Z31"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2273,7 +2273,7 @@
         <v>300</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA5">
         <v>134246955</v>
@@ -2365,7 +2365,7 @@
         <v>300</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA6">
         <v>134270852</v>
@@ -2457,7 +2457,7 @@
         <v>300</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA7">
         <v>134228686</v>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/unit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21348" windowHeight="16020"/>
+    <workbookView windowHeight="17711"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="5" r:id="rId1"/>
@@ -945,12 +945,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -959,6 +953,12 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1418,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1463,6 +1463,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1787,11 +1790,11 @@
   <dimension ref="A1:AD36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="T4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
+      <selection pane="bottomRight" activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2457,10 +2460,11 @@
         <v>300</v>
       </c>
       <c r="Z7">
-        <v>2</v>
-      </c>
-      <c r="AA7">
-        <v>134228686</v>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="15">
+        <f>IF(Z7=0,201347498,IF(Z7=1,201385536,""))</f>
+        <v>201347498</v>
       </c>
       <c r="AB7">
         <v>1.7</v>
@@ -2549,11 +2553,10 @@
         <v>300</v>
       </c>
       <c r="Z8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="0"/>
-        <v>201385536</v>
+        <v>134228686</v>
       </c>
       <c r="AB8">
         <v>2.28</v>
@@ -4097,11 +4100,11 @@
         <v>300</v>
       </c>
       <c r="Z24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" s="2">
         <f t="shared" si="4"/>
-        <v>201347498</v>
+        <v>201385536</v>
       </c>
       <c r="AB24" s="2">
         <v>1.5</v>
